--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>955.7672675871579</v>
+        <v>1128.349282642256</v>
       </c>
       <c r="AB2" t="n">
-        <v>1307.722940988706</v>
+        <v>1543.857267768242</v>
       </c>
       <c r="AC2" t="n">
-        <v>1182.915698901418</v>
+        <v>1396.513696949724</v>
       </c>
       <c r="AD2" t="n">
-        <v>955767.2675871579</v>
+        <v>1128349.282642256</v>
       </c>
       <c r="AE2" t="n">
-        <v>1307722.940988706</v>
+        <v>1543857.267768242</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.843680483026003e-07</v>
+        <v>1.130795502888041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>1182915.698901418</v>
+        <v>1396513.696949724</v>
       </c>
     </row>
     <row r="3">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>691.0531743897377</v>
+        <v>820.4684399759692</v>
       </c>
       <c r="AB3" t="n">
-        <v>945.5294403144213</v>
+        <v>1122.601116088072</v>
       </c>
       <c r="AC3" t="n">
-        <v>855.2894375897164</v>
+        <v>1015.461641149188</v>
       </c>
       <c r="AD3" t="n">
-        <v>691053.1743897377</v>
+        <v>820468.4399759693</v>
       </c>
       <c r="AE3" t="n">
-        <v>945529.4403144213</v>
+        <v>1122601.116088072</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.007116062972036e-06</v>
+        <v>1.451923388974834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.18229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>855289.4375897164</v>
+        <v>1015461.641149188</v>
       </c>
     </row>
     <row r="4">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>616.8610556546297</v>
+        <v>746.190890877739</v>
       </c>
       <c r="AB4" t="n">
-        <v>844.0165103357737</v>
+        <v>1020.971296517679</v>
       </c>
       <c r="AC4" t="n">
-        <v>763.464759173939</v>
+        <v>923.531228920245</v>
       </c>
       <c r="AD4" t="n">
-        <v>616861.0556546297</v>
+        <v>746190.8908777389</v>
       </c>
       <c r="AE4" t="n">
-        <v>844016.5103357737</v>
+        <v>1020971.296517679</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.090445247963117e-06</v>
+        <v>1.572056109642323e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.87760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>763464.759173939</v>
+        <v>923531.228920245</v>
       </c>
     </row>
     <row r="5">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>583.4729831779565</v>
+        <v>704.2547914601539</v>
       </c>
       <c r="AB5" t="n">
-        <v>798.3334765953895</v>
+        <v>963.5924752044051</v>
       </c>
       <c r="AC5" t="n">
-        <v>722.1416500571963</v>
+        <v>871.628561781429</v>
       </c>
       <c r="AD5" t="n">
-        <v>583472.9831779565</v>
+        <v>704254.7914601539</v>
       </c>
       <c r="AE5" t="n">
-        <v>798333.4765953894</v>
+        <v>963592.4752044051</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.138528755268894e-06</v>
+        <v>1.641376391035888e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.69270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>722141.6500571964</v>
+        <v>871628.561781429</v>
       </c>
     </row>
     <row r="6">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>569.4879314112616</v>
+        <v>681.6364614065263</v>
       </c>
       <c r="AB6" t="n">
-        <v>779.1985117912573</v>
+        <v>932.6450781747349</v>
       </c>
       <c r="AC6" t="n">
-        <v>704.8328994378787</v>
+        <v>843.6347408893258</v>
       </c>
       <c r="AD6" t="n">
-        <v>569487.9314112616</v>
+        <v>681636.4614065264</v>
       </c>
       <c r="AE6" t="n">
-        <v>779198.5117912573</v>
+        <v>932645.0781747348</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.167308835127159e-06</v>
+        <v>1.682867608005921e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.04166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>704832.8994378787</v>
+        <v>843634.7408893259</v>
       </c>
     </row>
     <row r="7">
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>551.2176379148765</v>
+        <v>663.4514192561618</v>
       </c>
       <c r="AB7" t="n">
-        <v>754.2002902010408</v>
+        <v>907.7635012371675</v>
       </c>
       <c r="AC7" t="n">
-        <v>682.2204730310083</v>
+        <v>821.1278267331672</v>
       </c>
       <c r="AD7" t="n">
-        <v>551217.6379148765</v>
+        <v>663451.4192561618</v>
       </c>
       <c r="AE7" t="n">
-        <v>754200.2902010408</v>
+        <v>907763.5012371675</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.185841992797444e-06</v>
+        <v>1.709586201902275e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH7" t="n">
-        <v>682220.4730310083</v>
+        <v>821127.8267331673</v>
       </c>
     </row>
     <row r="8">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>543.3759176921416</v>
+        <v>655.4391068328349</v>
       </c>
       <c r="AB8" t="n">
-        <v>743.4709026400149</v>
+        <v>896.8007019012947</v>
       </c>
       <c r="AC8" t="n">
-        <v>672.5150831600166</v>
+        <v>811.2113015795247</v>
       </c>
       <c r="AD8" t="n">
-        <v>543375.9176921416</v>
+        <v>655439.1068328349</v>
       </c>
       <c r="AE8" t="n">
-        <v>743470.9026400149</v>
+        <v>896800.7019012948</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.200313728005979e-06</v>
+        <v>1.730449587564416e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.32552083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>672515.0831600166</v>
+        <v>811211.3015795248</v>
       </c>
     </row>
     <row r="9">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>537.1073114731882</v>
+        <v>649.1705006138815</v>
       </c>
       <c r="AB9" t="n">
-        <v>734.8939190598546</v>
+        <v>888.2237183211344</v>
       </c>
       <c r="AC9" t="n">
-        <v>664.7566748548747</v>
+        <v>803.4528932743829</v>
       </c>
       <c r="AD9" t="n">
-        <v>537107.3114731882</v>
+        <v>649170.5006138815</v>
       </c>
       <c r="AE9" t="n">
-        <v>734893.9190598546</v>
+        <v>888223.7183211343</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.211307578462785e-06</v>
+        <v>1.746299030543236e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.09114583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>664756.6748548747</v>
+        <v>803452.8932743828</v>
       </c>
     </row>
     <row r="10">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>523.6905827707315</v>
+        <v>635.8390232574452</v>
       </c>
       <c r="AB10" t="n">
-        <v>716.5365589448575</v>
+        <v>869.9830028587866</v>
       </c>
       <c r="AC10" t="n">
-        <v>648.1513154245362</v>
+        <v>786.9530460947565</v>
       </c>
       <c r="AD10" t="n">
-        <v>523690.5827707314</v>
+        <v>635839.0232574452</v>
       </c>
       <c r="AE10" t="n">
-        <v>716536.5589448574</v>
+        <v>869983.0028587866</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.217843200815027e-06</v>
+        <v>1.755721204713235e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.9609375</v>
       </c>
       <c r="AH10" t="n">
-        <v>648151.3154245361</v>
+        <v>786953.0460947565</v>
       </c>
     </row>
     <row r="11">
@@ -6681,28 +6681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>519.0138446432435</v>
+        <v>631.1622851299574</v>
       </c>
       <c r="AB11" t="n">
-        <v>710.1376395157038</v>
+        <v>863.584083429633</v>
       </c>
       <c r="AC11" t="n">
-        <v>642.3630998847611</v>
+        <v>781.1648305549814</v>
       </c>
       <c r="AD11" t="n">
-        <v>519013.8446432435</v>
+        <v>631162.2851299574</v>
       </c>
       <c r="AE11" t="n">
-        <v>710137.6395157038</v>
+        <v>863584.0834296329</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.225896021213325e-06</v>
+        <v>1.767330669315556e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.79166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>642363.0998847611</v>
+        <v>781164.8305549815</v>
       </c>
     </row>
     <row r="12">
@@ -6787,28 +6787,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>513.3782083762379</v>
+        <v>625.5266488629517</v>
       </c>
       <c r="AB12" t="n">
-        <v>702.4267133484618</v>
+        <v>855.8731572623909</v>
       </c>
       <c r="AC12" t="n">
-        <v>635.3880936885679</v>
+        <v>774.1898243587882</v>
       </c>
       <c r="AD12" t="n">
-        <v>513378.2083762379</v>
+        <v>625526.6488629517</v>
       </c>
       <c r="AE12" t="n">
-        <v>702426.7133484618</v>
+        <v>855873.1572623909</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.233995524628424e-06</v>
+        <v>1.779007435161947e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.63541666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>635388.0936885679</v>
+        <v>774189.8243587882</v>
       </c>
     </row>
     <row r="13">
@@ -6893,28 +6893,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>509.9766583314535</v>
+        <v>622.1250988181671</v>
       </c>
       <c r="AB13" t="n">
-        <v>697.7725625113908</v>
+        <v>851.2190064253199</v>
       </c>
       <c r="AC13" t="n">
-        <v>631.1781284752452</v>
+        <v>769.9798591454655</v>
       </c>
       <c r="AD13" t="n">
-        <v>509976.6583314535</v>
+        <v>622125.0988181671</v>
       </c>
       <c r="AE13" t="n">
-        <v>697772.5625113908</v>
+        <v>851219.0064253199</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.238453752732989e-06</v>
+        <v>1.785434703970768e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.54427083333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>631178.1284752452</v>
+        <v>769979.8591454655</v>
       </c>
     </row>
     <row r="14">
@@ -6999,28 +6999,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>507.3797905052527</v>
+        <v>619.3576387913741</v>
       </c>
       <c r="AB14" t="n">
-        <v>694.2194133858602</v>
+        <v>847.4324455249422</v>
       </c>
       <c r="AC14" t="n">
-        <v>627.9640869153791</v>
+        <v>766.5546823029483</v>
       </c>
       <c r="AD14" t="n">
-        <v>507379.7905052527</v>
+        <v>619357.6387913742</v>
       </c>
       <c r="AE14" t="n">
-        <v>694219.4133858602</v>
+        <v>847432.4455249421</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.240601171505869e-06</v>
+        <v>1.788530561198054e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.4921875</v>
       </c>
       <c r="AH14" t="n">
-        <v>627964.086915379</v>
+        <v>766554.6823029483</v>
       </c>
     </row>
     <row r="15">
@@ -7105,28 +7105,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>502.9781620276592</v>
+        <v>606.4933242274404</v>
       </c>
       <c r="AB15" t="n">
-        <v>688.196911116673</v>
+        <v>829.8309228050638</v>
       </c>
       <c r="AC15" t="n">
-        <v>622.516363810128</v>
+        <v>750.6330242075628</v>
       </c>
       <c r="AD15" t="n">
-        <v>502978.1620276591</v>
+        <v>606493.3242274404</v>
       </c>
       <c r="AE15" t="n">
-        <v>688196.911116673</v>
+        <v>829830.9228050638</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.24550288827005e-06</v>
+        <v>1.795597191825553e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.40104166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>622516.3638101281</v>
+        <v>750633.0242075628</v>
       </c>
     </row>
     <row r="16">
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>498.5506954022848</v>
+        <v>602.0658576020661</v>
       </c>
       <c r="AB16" t="n">
-        <v>682.1390559537937</v>
+        <v>823.7730676421845</v>
       </c>
       <c r="AC16" t="n">
-        <v>617.036661841741</v>
+        <v>745.1533222391755</v>
       </c>
       <c r="AD16" t="n">
-        <v>498550.6954022847</v>
+        <v>602065.8576020661</v>
       </c>
       <c r="AE16" t="n">
-        <v>682139.0559537937</v>
+        <v>823773.0676421846</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.249377578664593e-06</v>
+        <v>1.801183195083481e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>24.32291666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>617036.6618417409</v>
+        <v>745153.3222391756</v>
       </c>
     </row>
     <row r="17">
@@ -7317,28 +7317,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>496.4746113852977</v>
+        <v>599.9897735850791</v>
       </c>
       <c r="AB17" t="n">
-        <v>679.2984662113894</v>
+        <v>820.9324778997802</v>
       </c>
       <c r="AC17" t="n">
-        <v>614.4671739975589</v>
+        <v>742.5838343949936</v>
       </c>
       <c r="AD17" t="n">
-        <v>496474.6113852977</v>
+        <v>599989.7735850791</v>
       </c>
       <c r="AE17" t="n">
-        <v>679298.4662113894</v>
+        <v>820932.4778997803</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.248583967378964e-06</v>
+        <v>1.800039073934267e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>24.3359375</v>
       </c>
       <c r="AH17" t="n">
-        <v>614467.1739975589</v>
+        <v>742583.8343949936</v>
       </c>
     </row>
     <row r="18">
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>493.5325639984883</v>
+        <v>597.0477261982697</v>
       </c>
       <c r="AB18" t="n">
-        <v>675.2730271827864</v>
+        <v>816.9070388711774</v>
       </c>
       <c r="AC18" t="n">
-        <v>610.8259172201068</v>
+        <v>738.9425776175415</v>
       </c>
       <c r="AD18" t="n">
-        <v>493532.5639984884</v>
+        <v>597047.7261982698</v>
       </c>
       <c r="AE18" t="n">
-        <v>675273.0271827865</v>
+        <v>816907.0388711774</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.253112220008731e-06</v>
+        <v>1.806567294609195e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>24.2578125</v>
       </c>
       <c r="AH18" t="n">
-        <v>610825.9172201068</v>
+        <v>738942.5776175414</v>
       </c>
     </row>
     <row r="19">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>489.5235586433896</v>
+        <v>593.0387208431709</v>
       </c>
       <c r="AB19" t="n">
-        <v>669.7877291911068</v>
+        <v>811.4217408794977</v>
       </c>
       <c r="AC19" t="n">
-        <v>605.8641283700889</v>
+        <v>733.9807887675236</v>
       </c>
       <c r="AD19" t="n">
-        <v>489523.5586433896</v>
+        <v>593038.720843171</v>
       </c>
       <c r="AE19" t="n">
-        <v>669787.7291911067</v>
+        <v>811421.7408794977</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.253135561517132e-06</v>
+        <v>1.806600945231231e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>24.2578125</v>
       </c>
       <c r="AH19" t="n">
-        <v>605864.1283700889</v>
+        <v>733980.7887675236</v>
       </c>
     </row>
     <row r="20">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>486.1579368675784</v>
+        <v>589.6730990673599</v>
       </c>
       <c r="AB20" t="n">
-        <v>665.1827369966884</v>
+        <v>806.8167486850792</v>
       </c>
       <c r="AC20" t="n">
-        <v>601.6986301675586</v>
+        <v>729.8152905649932</v>
       </c>
       <c r="AD20" t="n">
-        <v>486157.9368675784</v>
+        <v>589673.0990673599</v>
       </c>
       <c r="AE20" t="n">
-        <v>665182.7369966884</v>
+        <v>806816.7486850793</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.257733838672102e-06</v>
+        <v>1.813230117772266e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>601698.6301675586</v>
+        <v>729815.2905649933</v>
       </c>
     </row>
     <row r="21">
@@ -7741,28 +7741,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>483.9447129225516</v>
+        <v>587.459875122333</v>
       </c>
       <c r="AB21" t="n">
-        <v>662.1545063545532</v>
+        <v>803.7885180429441</v>
       </c>
       <c r="AC21" t="n">
-        <v>598.9594096077603</v>
+        <v>727.0760700051951</v>
       </c>
       <c r="AD21" t="n">
-        <v>483944.7129225516</v>
+        <v>587459.8751223329</v>
       </c>
       <c r="AE21" t="n">
-        <v>662154.5063545532</v>
+        <v>803788.5180429441</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.256683470794063e-06</v>
+        <v>1.811715839780659e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>24.1796875</v>
       </c>
       <c r="AH21" t="n">
-        <v>598959.4096077604</v>
+        <v>727076.0700051951</v>
       </c>
     </row>
     <row r="22">
@@ -7847,28 +7847,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>482.850034191288</v>
+        <v>586.3651963910693</v>
       </c>
       <c r="AB22" t="n">
-        <v>660.6567186206212</v>
+        <v>802.2907303090121</v>
       </c>
       <c r="AC22" t="n">
-        <v>597.6045686329966</v>
+        <v>725.7212290304312</v>
       </c>
       <c r="AD22" t="n">
-        <v>482850.0341912881</v>
+        <v>586365.1963910693</v>
       </c>
       <c r="AE22" t="n">
-        <v>660656.7186206211</v>
+        <v>802290.7303090121</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.256963568894873e-06</v>
+        <v>1.812119647245087e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>25</v>
+        <v>24.1796875</v>
       </c>
       <c r="AH22" t="n">
-        <v>597604.5686329965</v>
+        <v>725721.2290304312</v>
       </c>
     </row>
     <row r="23">
@@ -7953,28 +7953,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>481.2056559400651</v>
+        <v>584.7208181398464</v>
       </c>
       <c r="AB23" t="n">
-        <v>658.4068077524494</v>
+        <v>800.0408194408403</v>
       </c>
       <c r="AC23" t="n">
-        <v>595.5693861003134</v>
+        <v>723.6860464977481</v>
       </c>
       <c r="AD23" t="n">
-        <v>481205.655940065</v>
+        <v>584720.8181398464</v>
       </c>
       <c r="AE23" t="n">
-        <v>658406.8077524494</v>
+        <v>800040.8194408403</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.261585187558244e-06</v>
+        <v>1.818782470408158e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>24.08854166666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>595569.3861003134</v>
+        <v>723686.0464977481</v>
       </c>
     </row>
   </sheetData>
@@ -8250,28 +8250,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>770.2693224139437</v>
+        <v>921.6976055494267</v>
       </c>
       <c r="AB2" t="n">
-        <v>1053.916468810942</v>
+        <v>1261.107326341273</v>
       </c>
       <c r="AC2" t="n">
-        <v>953.3321602086795</v>
+        <v>1140.74901309051</v>
       </c>
       <c r="AD2" t="n">
-        <v>770269.3224139437</v>
+        <v>921697.6055494267</v>
       </c>
       <c r="AE2" t="n">
-        <v>1053916.468810942</v>
+        <v>1261107.326341273</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.063616679641763e-07</v>
+        <v>1.326879385522689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>953332.1602086795</v>
+        <v>1140749.01309051</v>
       </c>
     </row>
     <row r="3">
@@ -8356,28 +8356,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>590.9487723563225</v>
+        <v>708.7074507803443</v>
       </c>
       <c r="AB3" t="n">
-        <v>808.5621811577715</v>
+        <v>969.6848001237552</v>
       </c>
       <c r="AC3" t="n">
-        <v>731.3941414122216</v>
+        <v>877.1394437611077</v>
       </c>
       <c r="AD3" t="n">
-        <v>590948.7723563225</v>
+        <v>708707.4507803443</v>
       </c>
       <c r="AE3" t="n">
-        <v>808562.1811577715</v>
+        <v>969684.8001237551</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.109240257431222e-06</v>
+        <v>1.623886008422349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.34635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>731394.1414122216</v>
+        <v>877139.4437611077</v>
       </c>
     </row>
     <row r="4">
@@ -8462,28 +8462,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>539.7429146610278</v>
+        <v>657.5015035764985</v>
       </c>
       <c r="AB4" t="n">
-        <v>738.5000676160629</v>
+        <v>899.6225641124981</v>
       </c>
       <c r="AC4" t="n">
-        <v>668.0186576541399</v>
+        <v>813.7638492217995</v>
       </c>
       <c r="AD4" t="n">
-        <v>539742.9146610278</v>
+        <v>657501.5035764985</v>
       </c>
       <c r="AE4" t="n">
-        <v>738500.0676160629</v>
+        <v>899622.5641124982</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.182838679318338e-06</v>
+        <v>1.731631329369524e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.57552083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>668018.6576541399</v>
+        <v>813763.8492217995</v>
       </c>
     </row>
     <row r="5">
@@ -8568,28 +8568,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>509.0427136195481</v>
+        <v>618.4692198345873</v>
       </c>
       <c r="AB5" t="n">
-        <v>696.4946981538291</v>
+        <v>846.2168715139883</v>
       </c>
       <c r="AC5" t="n">
-        <v>630.0222216984753</v>
+        <v>765.4551209695309</v>
       </c>
       <c r="AD5" t="n">
-        <v>509042.7136195481</v>
+        <v>618469.2198345873</v>
       </c>
       <c r="AE5" t="n">
-        <v>696494.6981538291</v>
+        <v>846216.8715139882</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.23151795048777e-06</v>
+        <v>1.802895951098364e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.53385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>630022.2216984753</v>
+        <v>765455.1209695309</v>
       </c>
     </row>
     <row r="6">
@@ -8674,28 +8674,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>503.0201055608094</v>
+        <v>612.2760195752567</v>
       </c>
       <c r="AB6" t="n">
-        <v>688.2543001091475</v>
+        <v>837.7430616944595</v>
       </c>
       <c r="AC6" t="n">
-        <v>622.5682756777067</v>
+        <v>757.7900396661114</v>
       </c>
       <c r="AD6" t="n">
-        <v>503020.1055608094</v>
+        <v>612276.0195752566</v>
       </c>
       <c r="AE6" t="n">
-        <v>688254.3001091474</v>
+        <v>837743.0616944595</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.24629558637849e-06</v>
+        <v>1.824529854123191e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.22135416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>622568.2756777067</v>
+        <v>757790.0396661113</v>
       </c>
     </row>
     <row r="7">
@@ -8780,28 +8780,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>485.8003952362537</v>
+        <v>595.1415605967214</v>
       </c>
       <c r="AB7" t="n">
-        <v>664.6935327630864</v>
+        <v>814.2989390010479</v>
       </c>
       <c r="AC7" t="n">
-        <v>601.2561148994091</v>
+        <v>736.5833911385259</v>
       </c>
       <c r="AD7" t="n">
-        <v>485800.3952362537</v>
+        <v>595141.5605967215</v>
       </c>
       <c r="AE7" t="n">
-        <v>664693.5327630864</v>
+        <v>814298.9390010479</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.263825919150815e-06</v>
+        <v>1.850193601829112e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.8828125</v>
       </c>
       <c r="AH7" t="n">
-        <v>601256.1148994091</v>
+        <v>736583.3911385259</v>
       </c>
     </row>
     <row r="8">
@@ -8886,28 +8886,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>479.2169016613235</v>
+        <v>588.5580670217912</v>
       </c>
       <c r="AB8" t="n">
-        <v>655.6857064106289</v>
+        <v>805.2911126485902</v>
       </c>
       <c r="AC8" t="n">
-        <v>593.1079828514664</v>
+        <v>728.4352590905831</v>
       </c>
       <c r="AD8" t="n">
-        <v>479216.9016613235</v>
+        <v>588558.0670217912</v>
       </c>
       <c r="AE8" t="n">
-        <v>655685.7064106289</v>
+        <v>805291.1126485902</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.274136459224896e-06</v>
+        <v>1.865287844625846e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.67447916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>593107.9828514664</v>
+        <v>728435.2590905832</v>
       </c>
     </row>
     <row r="9">
@@ -8992,28 +8992,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>473.5348968289379</v>
+        <v>582.7054699888135</v>
       </c>
       <c r="AB9" t="n">
-        <v>647.9113367265973</v>
+        <v>797.2833311897117</v>
       </c>
       <c r="AC9" t="n">
-        <v>586.0755880986824</v>
+        <v>721.1917290551481</v>
       </c>
       <c r="AD9" t="n">
-        <v>473534.8968289379</v>
+        <v>582705.4699888135</v>
       </c>
       <c r="AE9" t="n">
-        <v>647911.3367265973</v>
+        <v>797283.3311897117</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.284205534660239e-06</v>
+        <v>1.880028592275115e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.47916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>586075.5880986823</v>
+        <v>721191.7290551481</v>
       </c>
     </row>
     <row r="10">
@@ -9098,28 +9098,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>468.4798945835414</v>
+        <v>569.4037258975573</v>
       </c>
       <c r="AB10" t="n">
-        <v>640.9948596434861</v>
+        <v>779.0832980925221</v>
       </c>
       <c r="AC10" t="n">
-        <v>579.8192098810467</v>
+        <v>704.7286815728474</v>
       </c>
       <c r="AD10" t="n">
-        <v>468479.8945835414</v>
+        <v>569403.7258975572</v>
       </c>
       <c r="AE10" t="n">
-        <v>640994.8596434861</v>
+        <v>779083.2980925221</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.291690938461095e-06</v>
+        <v>1.890986941846514e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.3359375</v>
       </c>
       <c r="AH10" t="n">
-        <v>579819.2098810468</v>
+        <v>704728.6815728474</v>
       </c>
     </row>
     <row r="11">
@@ -9204,28 +9204,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>461.8596620006437</v>
+        <v>562.7834933146595</v>
       </c>
       <c r="AB11" t="n">
-        <v>631.9367653595166</v>
+        <v>770.0252038085525</v>
       </c>
       <c r="AC11" t="n">
-        <v>571.6256074024242</v>
+        <v>696.5350790942249</v>
       </c>
       <c r="AD11" t="n">
-        <v>461859.6620006437</v>
+        <v>562783.4933146595</v>
       </c>
       <c r="AE11" t="n">
-        <v>631936.7653595166</v>
+        <v>770025.2038085526</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.299731710931045e-06</v>
+        <v>1.902758330257081e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.19270833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>571625.6074024242</v>
+        <v>696535.0790942248</v>
       </c>
     </row>
     <row r="12">
@@ -9310,28 +9310,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>458.4393857648935</v>
+        <v>559.3632170789093</v>
       </c>
       <c r="AB12" t="n">
-        <v>627.2569925218252</v>
+        <v>765.3454309708611</v>
       </c>
       <c r="AC12" t="n">
-        <v>567.3924655162596</v>
+        <v>692.3019372080602</v>
       </c>
       <c r="AD12" t="n">
-        <v>458439.3857648935</v>
+        <v>559363.2170789093</v>
       </c>
       <c r="AE12" t="n">
-        <v>627256.9925218251</v>
+        <v>765345.4309708611</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.302919044162377e-06</v>
+        <v>1.907424466203612e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.12760416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>567392.4655162595</v>
+        <v>692301.9372080602</v>
       </c>
     </row>
     <row r="13">
@@ -9416,28 +9416,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>454.0754307933794</v>
+        <v>554.9992621073952</v>
       </c>
       <c r="AB13" t="n">
-        <v>621.2860368056939</v>
+        <v>759.3744752547299</v>
       </c>
       <c r="AC13" t="n">
-        <v>561.9913694333869</v>
+        <v>686.9008411251875</v>
       </c>
       <c r="AD13" t="n">
-        <v>454075.4307933794</v>
+        <v>554999.2621073952</v>
       </c>
       <c r="AE13" t="n">
-        <v>621286.0368056939</v>
+        <v>759374.4752547299</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.30695150362929e-06</v>
+        <v>1.913327835166269e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH13" t="n">
-        <v>561991.3694333869</v>
+        <v>686900.8411251876</v>
       </c>
     </row>
     <row r="14">
@@ -9522,28 +9522,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>438.3990742411321</v>
+        <v>547.6548987470283</v>
       </c>
       <c r="AB14" t="n">
-        <v>599.836954178868</v>
+        <v>749.325593294632</v>
       </c>
       <c r="AC14" t="n">
-        <v>542.5893571484888</v>
+        <v>677.8110103556669</v>
       </c>
       <c r="AD14" t="n">
-        <v>438399.0742411321</v>
+        <v>547654.8987470282</v>
       </c>
       <c r="AE14" t="n">
-        <v>599836.9541788681</v>
+        <v>749325.5932946319</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.313519341802943e-06</v>
+        <v>1.922942903177303e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.93229166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>542589.3571484889</v>
+        <v>677811.0103556669</v>
       </c>
     </row>
     <row r="15">
@@ -9628,28 +9628,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>436.5046357466983</v>
+        <v>545.7604602525944</v>
       </c>
       <c r="AB15" t="n">
-        <v>597.244899854056</v>
+        <v>746.7335389698196</v>
       </c>
       <c r="AC15" t="n">
-        <v>540.2446848504658</v>
+        <v>675.4663380576437</v>
       </c>
       <c r="AD15" t="n">
-        <v>436504.6357466984</v>
+        <v>545760.4602525944</v>
       </c>
       <c r="AE15" t="n">
-        <v>597244.8998540561</v>
+        <v>746733.5389698197</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.313543488266816e-06</v>
+        <v>1.92297825269205e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>23.93229166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>540244.6848504657</v>
+        <v>675466.3380576437</v>
       </c>
     </row>
     <row r="16">
@@ -9734,28 +9734,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>436.5883570107717</v>
+        <v>545.8441815166678</v>
       </c>
       <c r="AB16" t="n">
-        <v>597.3594509810829</v>
+        <v>746.8480900968465</v>
       </c>
       <c r="AC16" t="n">
-        <v>540.3483033787026</v>
+        <v>675.5699565858805</v>
       </c>
       <c r="AD16" t="n">
-        <v>436588.3570107718</v>
+        <v>545844.1815166678</v>
       </c>
       <c r="AE16" t="n">
-        <v>597359.4509810829</v>
+        <v>746848.0900968465</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.313181291308711e-06</v>
+        <v>1.922448009970853e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>24</v>
+        <v>23.9453125</v>
       </c>
       <c r="AH16" t="n">
-        <v>540348.3033787026</v>
+        <v>675569.9565858805</v>
       </c>
     </row>
   </sheetData>
@@ -10031,28 +10031,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>444.8829505355779</v>
+        <v>553.4544006143437</v>
       </c>
       <c r="AB2" t="n">
-        <v>608.7084797733627</v>
+        <v>757.2607276054579</v>
       </c>
       <c r="AC2" t="n">
-        <v>550.6141967915094</v>
+        <v>684.9888265848986</v>
       </c>
       <c r="AD2" t="n">
-        <v>444882.950535578</v>
+        <v>553454.4006143437</v>
       </c>
       <c r="AE2" t="n">
-        <v>608708.4797733626</v>
+        <v>757260.7276054579</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.279028645853639e-06</v>
+        <v>1.978815189369802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.43489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>550614.1967915094</v>
+        <v>684988.8265848985</v>
       </c>
     </row>
     <row r="3">
@@ -10137,28 +10137,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>381.9966804723973</v>
+        <v>482.8860931629437</v>
       </c>
       <c r="AB3" t="n">
-        <v>522.6647107264873</v>
+        <v>660.7060560964502</v>
       </c>
       <c r="AC3" t="n">
-        <v>472.7823242992794</v>
+        <v>597.6491974093778</v>
       </c>
       <c r="AD3" t="n">
-        <v>381996.6804723973</v>
+        <v>482886.0931629437</v>
       </c>
       <c r="AE3" t="n">
-        <v>522664.7107264873</v>
+        <v>660706.0560964502</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.409410352558626e-06</v>
+        <v>2.180531783036549e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>472782.3242992794</v>
+        <v>597649.1974093779</v>
       </c>
     </row>
     <row r="4">
@@ -10243,28 +10243,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>365.2569705206201</v>
+        <v>458.3791839854777</v>
       </c>
       <c r="AB4" t="n">
-        <v>499.7607010665836</v>
+        <v>627.1746217913131</v>
       </c>
       <c r="AC4" t="n">
-        <v>452.0642411753375</v>
+        <v>567.3179561326598</v>
       </c>
       <c r="AD4" t="n">
-        <v>365256.9705206201</v>
+        <v>458379.1839854777</v>
       </c>
       <c r="AE4" t="n">
-        <v>499760.7010665836</v>
+        <v>627174.6217913132</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.458017213252116e-06</v>
+        <v>2.255732596215886e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>452064.2411753375</v>
+        <v>567317.9561326598</v>
       </c>
     </row>
     <row r="5">
@@ -10349,28 +10349,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>346.2908117519277</v>
+        <v>439.4982765628059</v>
       </c>
       <c r="AB5" t="n">
-        <v>473.8103659113872</v>
+        <v>601.3409312887661</v>
       </c>
       <c r="AC5" t="n">
-        <v>428.5905695858288</v>
+        <v>543.9497967938634</v>
       </c>
       <c r="AD5" t="n">
-        <v>346290.8117519277</v>
+        <v>439498.2765628059</v>
       </c>
       <c r="AE5" t="n">
-        <v>473810.3659113873</v>
+        <v>601340.9312887661</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.478305997122514e-06</v>
+        <v>2.287121849167128e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.73697916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>428590.5695858288</v>
+        <v>543949.7967938634</v>
       </c>
     </row>
     <row r="6">
@@ -10455,28 +10455,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>345.0455133147295</v>
+        <v>438.2529781256078</v>
       </c>
       <c r="AB6" t="n">
-        <v>472.106493650923</v>
+        <v>599.6370590283019</v>
       </c>
       <c r="AC6" t="n">
-        <v>427.0493125025037</v>
+        <v>542.4085397105381</v>
       </c>
       <c r="AD6" t="n">
-        <v>345045.5133147296</v>
+        <v>438252.9781256078</v>
       </c>
       <c r="AE6" t="n">
-        <v>472106.493650923</v>
+        <v>599637.0590283019</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.483048129873098e-06</v>
+        <v>2.294458513867551e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.65885416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>427049.3125025036</v>
+        <v>542408.5397105381</v>
       </c>
     </row>
   </sheetData>
@@ -10752,28 +10752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>544.6006863760033</v>
+        <v>664.922669052172</v>
       </c>
       <c r="AB2" t="n">
-        <v>745.1466851862554</v>
+        <v>909.7765301150289</v>
       </c>
       <c r="AC2" t="n">
-        <v>674.0309313720195</v>
+        <v>822.9487349602293</v>
       </c>
       <c r="AD2" t="n">
-        <v>544600.6863760033</v>
+        <v>664922.669052172</v>
       </c>
       <c r="AE2" t="n">
-        <v>745146.6851862554</v>
+        <v>909776.5301150288</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.132099868138847e-06</v>
+        <v>1.710935702389313e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.6484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>674030.9313720195</v>
+        <v>822948.7349602294</v>
       </c>
     </row>
     <row r="3">
@@ -10858,28 +10858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>450.2798673849181</v>
+        <v>562.409702840199</v>
       </c>
       <c r="AB3" t="n">
-        <v>616.0927795017974</v>
+        <v>769.513767190924</v>
       </c>
       <c r="AC3" t="n">
-        <v>557.2937493177919</v>
+        <v>696.0724532695768</v>
       </c>
       <c r="AD3" t="n">
-        <v>450279.8673849181</v>
+        <v>562409.702840199</v>
       </c>
       <c r="AE3" t="n">
-        <v>616092.7795017974</v>
+        <v>769513.767190924</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.292712670469748e-06</v>
+        <v>1.953668861806157e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.96354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>557293.7493177919</v>
+        <v>696072.4532695769</v>
       </c>
     </row>
     <row r="4">
@@ -10964,28 +10964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>418.6578567957641</v>
+        <v>522.851567593872</v>
       </c>
       <c r="AB4" t="n">
-        <v>572.8261495490684</v>
+        <v>715.3885813651411</v>
       </c>
       <c r="AC4" t="n">
-        <v>518.1564258026548</v>
+        <v>647.1128992138312</v>
       </c>
       <c r="AD4" t="n">
-        <v>418657.8567957641</v>
+        <v>522851.567593872</v>
       </c>
       <c r="AE4" t="n">
-        <v>572826.1495490684</v>
+        <v>715388.5813651411</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.358700276627203e-06</v>
+        <v>2.053395532983676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.70052083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>518156.4258026548</v>
+        <v>647112.8992138312</v>
       </c>
     </row>
     <row r="5">
@@ -11070,28 +11070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>410.4468782126369</v>
+        <v>506.6192130075514</v>
       </c>
       <c r="AB5" t="n">
-        <v>561.5915264088246</v>
+        <v>693.178757699194</v>
       </c>
       <c r="AC5" t="n">
-        <v>507.9940193270232</v>
+        <v>627.022749946879</v>
       </c>
       <c r="AD5" t="n">
-        <v>410446.8782126369</v>
+        <v>506619.2130075514</v>
       </c>
       <c r="AE5" t="n">
-        <v>561591.5264088246</v>
+        <v>693178.757699194</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.377027303181091e-06</v>
+        <v>2.081093057673996e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.375</v>
       </c>
       <c r="AH5" t="n">
-        <v>507994.0193270232</v>
+        <v>627022.749946879</v>
       </c>
     </row>
     <row r="6">
@@ -11176,28 +11176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>400.7103364411585</v>
+        <v>496.8826712360728</v>
       </c>
       <c r="AB6" t="n">
-        <v>548.2695604111806</v>
+        <v>679.8567917015499</v>
       </c>
       <c r="AC6" t="n">
-        <v>495.9434830666976</v>
+        <v>614.9722136865535</v>
       </c>
       <c r="AD6" t="n">
-        <v>400710.3364411584</v>
+        <v>496882.6712360728</v>
       </c>
       <c r="AE6" t="n">
-        <v>548269.5604111806</v>
+        <v>679856.7917015499</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.397055572706224e-06</v>
+        <v>2.11136166060561e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.0234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>495943.4830666976</v>
+        <v>614972.2136865534</v>
       </c>
     </row>
     <row r="7">
@@ -11282,28 +11282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>384.9078998735644</v>
+        <v>489.0162698171008</v>
       </c>
       <c r="AB7" t="n">
-        <v>526.6479695450997</v>
+        <v>669.0936342389747</v>
       </c>
       <c r="AC7" t="n">
-        <v>476.3854264867823</v>
+        <v>605.2362768660199</v>
       </c>
       <c r="AD7" t="n">
-        <v>384907.8998735644</v>
+        <v>489016.2698171008</v>
       </c>
       <c r="AE7" t="n">
-        <v>526647.9695450998</v>
+        <v>669093.6342389747</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.409041602730919e-06</v>
+        <v>2.129476075487463e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.81510416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>476385.4264867823</v>
+        <v>605236.2768660199</v>
       </c>
     </row>
     <row r="8">
@@ -11388,28 +11388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>377.8069122432909</v>
+        <v>474.064498384226</v>
       </c>
       <c r="AB8" t="n">
-        <v>516.9320849958951</v>
+        <v>648.635960938914</v>
       </c>
       <c r="AC8" t="n">
-        <v>467.5968123226241</v>
+        <v>586.7310551931921</v>
       </c>
       <c r="AD8" t="n">
-        <v>377806.9122432909</v>
+        <v>474064.498384226</v>
       </c>
       <c r="AE8" t="n">
-        <v>516932.0849958952</v>
+        <v>648635.960938914</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.415047505947593e-06</v>
+        <v>2.138552760793855e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.72395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>467596.8123226241</v>
+        <v>586731.0551931921</v>
       </c>
     </row>
     <row r="9">
@@ -11494,28 +11494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>377.03361583739</v>
+        <v>473.2912019783249</v>
       </c>
       <c r="AB9" t="n">
-        <v>515.8740267379118</v>
+        <v>647.5779026809305</v>
       </c>
       <c r="AC9" t="n">
-        <v>466.6397336597885</v>
+        <v>585.7739765303564</v>
       </c>
       <c r="AD9" t="n">
-        <v>377033.61583739</v>
+        <v>473291.2019783249</v>
       </c>
       <c r="AE9" t="n">
-        <v>515874.0267379117</v>
+        <v>647577.9026809304</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.419197507741089e-06</v>
+        <v>2.144824633473378e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.64583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>466639.7336597885</v>
+        <v>585773.9765303564</v>
       </c>
     </row>
   </sheetData>
@@ -11791,28 +11791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>371.7969207291554</v>
+        <v>477.4496019399883</v>
       </c>
       <c r="AB2" t="n">
-        <v>508.7089494641421</v>
+        <v>653.2676089641369</v>
       </c>
       <c r="AC2" t="n">
-        <v>460.1584813047784</v>
+        <v>590.9206652314467</v>
       </c>
       <c r="AD2" t="n">
-        <v>371796.9207291554</v>
+        <v>477449.6019399883</v>
       </c>
       <c r="AE2" t="n">
-        <v>508708.9494641421</v>
+        <v>653267.6089641369</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.401891641418796e-06</v>
+        <v>2.215672903023985e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.98958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>460158.4813047784</v>
+        <v>590920.6652314467</v>
       </c>
     </row>
     <row r="3">
@@ -11897,28 +11897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>335.3073264667727</v>
+        <v>425.9278147664459</v>
       </c>
       <c r="AB3" t="n">
-        <v>458.7822767870657</v>
+        <v>582.773226772465</v>
       </c>
       <c r="AC3" t="n">
-        <v>414.9967401954769</v>
+        <v>527.1541679366611</v>
       </c>
       <c r="AD3" t="n">
-        <v>335307.3264667727</v>
+        <v>425927.8147664459</v>
       </c>
       <c r="AE3" t="n">
-        <v>458782.2767870657</v>
+        <v>582773.226772465</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.508257095019467e-06</v>
+        <v>2.383782225027183e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.15364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>414996.7401954769</v>
+        <v>527154.1679366612</v>
       </c>
     </row>
     <row r="4">
@@ -12003,28 +12003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>319.1464452858489</v>
+        <v>409.8521849315428</v>
       </c>
       <c r="AB4" t="n">
-        <v>436.6702461875668</v>
+        <v>560.7778408256155</v>
       </c>
       <c r="AC4" t="n">
-        <v>394.9950507619644</v>
+        <v>507.2579907538608</v>
       </c>
       <c r="AD4" t="n">
-        <v>319146.4452858489</v>
+        <v>409852.1849315427</v>
       </c>
       <c r="AE4" t="n">
-        <v>436670.2461875668</v>
+        <v>560777.8408256155</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.534337758727919e-06</v>
+        <v>2.425002400798553e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>394995.0507619643</v>
+        <v>507257.9907538608</v>
       </c>
     </row>
   </sheetData>
@@ -12300,28 +12300,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>815.8732751122976</v>
+        <v>976.7120637995205</v>
       </c>
       <c r="AB2" t="n">
-        <v>1116.31380879723</v>
+        <v>1336.380535185655</v>
       </c>
       <c r="AC2" t="n">
-        <v>1009.774385641892</v>
+        <v>1208.838252529397</v>
       </c>
       <c r="AD2" t="n">
-        <v>815873.2751122976</v>
+        <v>976712.0637995205</v>
       </c>
       <c r="AE2" t="n">
-        <v>1116313.80879723</v>
+        <v>1336380.535185655</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.723759635769763e-07</v>
+        <v>1.271824956072199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.71614583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1009774.385641892</v>
+        <v>1208838.252529397</v>
       </c>
     </row>
     <row r="3">
@@ -12406,28 +12406,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>610.9225990356032</v>
+        <v>737.9499979676366</v>
       </c>
       <c r="AB3" t="n">
-        <v>835.8912520034058</v>
+        <v>1009.69574327554</v>
       </c>
       <c r="AC3" t="n">
-        <v>756.1149640929403</v>
+        <v>913.331798654198</v>
       </c>
       <c r="AD3" t="n">
-        <v>610922.5990356032</v>
+        <v>737949.9979676366</v>
       </c>
       <c r="AE3" t="n">
-        <v>835891.2520034058</v>
+        <v>1009695.74327554</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.082501411683445e-06</v>
+        <v>1.57816396581737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.7890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>756114.9640929403</v>
+        <v>913331.7986541979</v>
       </c>
     </row>
     <row r="4">
@@ -12512,28 +12512,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>556.7751139584425</v>
+        <v>675.3283302380354</v>
       </c>
       <c r="AB4" t="n">
-        <v>761.804274102387</v>
+        <v>924.0140148148993</v>
       </c>
       <c r="AC4" t="n">
-        <v>689.0987433810685</v>
+        <v>835.8274141027797</v>
       </c>
       <c r="AD4" t="n">
-        <v>556775.1139584425</v>
+        <v>675328.3302380354</v>
       </c>
       <c r="AE4" t="n">
-        <v>761804.274102387</v>
+        <v>924014.0148148993</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.158717053662616e-06</v>
+        <v>1.689277705259162e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.88802083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>689098.7433810685</v>
+        <v>835827.4141027797</v>
       </c>
     </row>
     <row r="5">
@@ -12618,28 +12618,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>526.9794620451872</v>
+        <v>645.4473374702085</v>
       </c>
       <c r="AB5" t="n">
-        <v>721.0365486632811</v>
+        <v>883.1295222535957</v>
       </c>
       <c r="AC5" t="n">
-        <v>652.2218324400087</v>
+        <v>798.8448801297811</v>
       </c>
       <c r="AD5" t="n">
-        <v>526979.4620451872</v>
+        <v>645447.3374702085</v>
       </c>
       <c r="AE5" t="n">
-        <v>721036.5486632811</v>
+        <v>883129.5222535958</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.203369608743663e-06</v>
+        <v>1.754376053076551e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.8984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>652221.8324400088</v>
+        <v>798844.8801297811</v>
       </c>
     </row>
     <row r="6">
@@ -12724,28 +12724,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>517.1932091245355</v>
+        <v>627.1869914056678</v>
       </c>
       <c r="AB6" t="n">
-        <v>707.6465656782373</v>
+        <v>858.1449111784781</v>
       </c>
       <c r="AC6" t="n">
-        <v>640.1097706380982</v>
+        <v>776.2447652695507</v>
       </c>
       <c r="AD6" t="n">
-        <v>517193.2091245356</v>
+        <v>627186.9914056677</v>
       </c>
       <c r="AE6" t="n">
-        <v>707646.5656782372</v>
+        <v>858144.911178478</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.225624097610423e-06</v>
+        <v>1.786820567262066e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.41666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>640109.7706380982</v>
+        <v>776244.7652695507</v>
       </c>
     </row>
     <row r="7">
@@ -12830,28 +12830,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>508.9297210422634</v>
+        <v>610.6200023800983</v>
       </c>
       <c r="AB7" t="n">
-        <v>696.3400967247077</v>
+        <v>835.4772259097216</v>
       </c>
       <c r="AC7" t="n">
-        <v>629.8823752127647</v>
+        <v>755.7404520685482</v>
       </c>
       <c r="AD7" t="n">
-        <v>508929.7210422634</v>
+        <v>610620.0023800983</v>
       </c>
       <c r="AE7" t="n">
-        <v>696340.0967247076</v>
+        <v>835477.2259097216</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.242685872408272e-06</v>
+        <v>1.811694694804294e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.078125</v>
       </c>
       <c r="AH7" t="n">
-        <v>629882.3752127647</v>
+        <v>755740.4520685482</v>
       </c>
     </row>
     <row r="8">
@@ -12936,28 +12936,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>492.2800793915333</v>
+        <v>602.359113018686</v>
       </c>
       <c r="AB8" t="n">
-        <v>673.5593224878296</v>
+        <v>824.1743126407197</v>
       </c>
       <c r="AC8" t="n">
-        <v>609.2757660960369</v>
+        <v>745.5162729782015</v>
       </c>
       <c r="AD8" t="n">
-        <v>492280.0793915333</v>
+        <v>602359.113018686</v>
       </c>
       <c r="AE8" t="n">
-        <v>673559.3224878296</v>
+        <v>824174.3126407197</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.258096507709555e-06</v>
+        <v>1.834161648713404e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>609275.7660960369</v>
+        <v>745516.2729782015</v>
       </c>
     </row>
     <row r="9">
@@ -13042,28 +13042,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>488.1461377713289</v>
+        <v>598.2251713984816</v>
       </c>
       <c r="AB9" t="n">
-        <v>667.903081186433</v>
+        <v>818.5180713393235</v>
       </c>
       <c r="AC9" t="n">
-        <v>604.1593485258611</v>
+        <v>740.3998554080259</v>
       </c>
       <c r="AD9" t="n">
-        <v>488146.1377713289</v>
+        <v>598225.1713984816</v>
       </c>
       <c r="AE9" t="n">
-        <v>667903.0811864331</v>
+        <v>818518.0713393234</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.263265292220544e-06</v>
+        <v>1.841697148782298e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.66145833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>604159.3485258612</v>
+        <v>740399.8554080259</v>
       </c>
     </row>
     <row r="10">
@@ -13148,28 +13148,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>482.3422366071913</v>
+        <v>592.4212702343439</v>
       </c>
       <c r="AB10" t="n">
-        <v>659.9619275636118</v>
+        <v>810.5769177165018</v>
       </c>
       <c r="AC10" t="n">
-        <v>596.9760874593228</v>
+        <v>733.2165943414874</v>
       </c>
       <c r="AD10" t="n">
-        <v>482342.2366071913</v>
+        <v>592421.2702343438</v>
       </c>
       <c r="AE10" t="n">
-        <v>659961.9275636118</v>
+        <v>810576.9177165019</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.271616707935059e-06</v>
+        <v>1.853872563245464e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.50520833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>596976.0874593228</v>
+        <v>733216.5943414874</v>
       </c>
     </row>
     <row r="11">
@@ -13254,28 +13254,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>476.3843165328034</v>
+        <v>577.989257016067</v>
       </c>
       <c r="AB11" t="n">
-        <v>651.8100384729514</v>
+        <v>790.8304005357677</v>
       </c>
       <c r="AC11" t="n">
-        <v>589.6022032222268</v>
+        <v>715.3546570460716</v>
       </c>
       <c r="AD11" t="n">
-        <v>476384.3165328035</v>
+        <v>577989.2570160669</v>
       </c>
       <c r="AE11" t="n">
-        <v>651810.0384729514</v>
+        <v>790830.4005357677</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.279704898512441e-06</v>
+        <v>1.865664225390307e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.34895833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>589602.2032222268</v>
+        <v>715354.6570460716</v>
       </c>
     </row>
     <row r="12">
@@ -13360,28 +13360,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>471.2846743324646</v>
+        <v>572.8896148157279</v>
       </c>
       <c r="AB12" t="n">
-        <v>644.8324830341121</v>
+        <v>783.8528450969285</v>
       </c>
       <c r="AC12" t="n">
-        <v>583.2905758814098</v>
+        <v>709.0430297052546</v>
       </c>
       <c r="AD12" t="n">
-        <v>471284.6743324646</v>
+        <v>572889.6148157279</v>
       </c>
       <c r="AE12" t="n">
-        <v>644832.4830341121</v>
+        <v>783852.8450969285</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.286285526940784e-06</v>
+        <v>1.87525803334839e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.21875</v>
       </c>
       <c r="AH12" t="n">
-        <v>583290.5758814098</v>
+        <v>709043.0297052546</v>
       </c>
     </row>
     <row r="13">
@@ -13466,28 +13466,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>468.3480672533826</v>
+        <v>569.9530077366459</v>
       </c>
       <c r="AB13" t="n">
-        <v>640.8144876745513</v>
+        <v>779.8348497373676</v>
       </c>
       <c r="AC13" t="n">
-        <v>579.6560523596736</v>
+        <v>705.4085061835183</v>
       </c>
       <c r="AD13" t="n">
-        <v>468348.0672533826</v>
+        <v>569953.0077366459</v>
       </c>
       <c r="AE13" t="n">
-        <v>640814.4876745513</v>
+        <v>779834.8497373676</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.285854794898201e-06</v>
+        <v>1.874630075009315e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.23177083333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>579656.0523596735</v>
+        <v>705408.5061835183</v>
       </c>
     </row>
     <row r="14">
@@ -13572,28 +13572,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>464.0191104117699</v>
+        <v>565.6240508950333</v>
       </c>
       <c r="AB14" t="n">
-        <v>634.8914179437596</v>
+        <v>773.9117800065761</v>
       </c>
       <c r="AC14" t="n">
-        <v>574.2982720909081</v>
+        <v>700.0507259147529</v>
       </c>
       <c r="AD14" t="n">
-        <v>464019.1104117699</v>
+        <v>565624.0508950333</v>
       </c>
       <c r="AE14" t="n">
-        <v>634891.4179437596</v>
+        <v>773911.7800065761</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.289994608418577e-06</v>
+        <v>1.880665452379309e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.15364583333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>574298.2720909081</v>
+        <v>700050.7259147529</v>
       </c>
     </row>
     <row r="15">
@@ -13678,28 +13678,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>459.7042508516718</v>
+        <v>561.3091913349351</v>
       </c>
       <c r="AB15" t="n">
-        <v>628.9876367354644</v>
+        <v>768.0079987982807</v>
       </c>
       <c r="AC15" t="n">
-        <v>568.9579394751236</v>
+        <v>694.7103932989685</v>
       </c>
       <c r="AD15" t="n">
-        <v>459704.2508516718</v>
+        <v>561309.1913349351</v>
       </c>
       <c r="AE15" t="n">
-        <v>628987.6367354644</v>
+        <v>768007.9987982807</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.293368676085473e-06</v>
+        <v>1.885584459368726e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.08854166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>568957.9394751235</v>
+        <v>694710.3932989684</v>
       </c>
     </row>
     <row r="16">
@@ -13784,28 +13784,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>456.0326650105198</v>
+        <v>557.6376054937831</v>
       </c>
       <c r="AB16" t="n">
-        <v>623.964011008665</v>
+        <v>762.9843730714813</v>
       </c>
       <c r="AC16" t="n">
-        <v>564.4137615369868</v>
+        <v>690.1662153608318</v>
       </c>
       <c r="AD16" t="n">
-        <v>456032.6650105198</v>
+        <v>557637.6054937831</v>
       </c>
       <c r="AE16" t="n">
-        <v>623964.011008665</v>
+        <v>762984.3730714812</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.297819573858825e-06</v>
+        <v>1.892073362205829e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>24.01041666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>564413.7615369868</v>
+        <v>690166.2153608317</v>
       </c>
     </row>
     <row r="17">
@@ -13890,28 +13890,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>453.9962261207912</v>
+        <v>555.6011666040545</v>
       </c>
       <c r="AB17" t="n">
-        <v>621.1776654783951</v>
+        <v>760.1980275412113</v>
       </c>
       <c r="AC17" t="n">
-        <v>561.8933409134653</v>
+        <v>687.6457947373101</v>
       </c>
       <c r="AD17" t="n">
-        <v>453996.2261207912</v>
+        <v>555601.1666040545</v>
       </c>
       <c r="AE17" t="n">
-        <v>621177.6654783951</v>
+        <v>760198.0275412113</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.297005968889502e-06</v>
+        <v>1.890887218676466e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>24.0234375</v>
       </c>
       <c r="AH17" t="n">
-        <v>561893.3409134652</v>
+        <v>687645.7947373101</v>
       </c>
     </row>
     <row r="18">
@@ -13996,28 +13996,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>453.9637160238036</v>
+        <v>555.5686565070669</v>
       </c>
       <c r="AB18" t="n">
-        <v>621.1331837294523</v>
+        <v>760.1535457922686</v>
       </c>
       <c r="AC18" t="n">
-        <v>561.8531044402112</v>
+        <v>687.6055582640561</v>
       </c>
       <c r="AD18" t="n">
-        <v>453963.7160238036</v>
+        <v>555568.6565070669</v>
       </c>
       <c r="AE18" t="n">
-        <v>621133.1837294523</v>
+        <v>760153.5457922686</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.295833420551361e-06</v>
+        <v>1.889177776531208e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>24.04947916666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>561853.1044402112</v>
+        <v>687605.5582640561</v>
       </c>
     </row>
     <row r="19">
@@ -14102,28 +14102,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>455.1873544655402</v>
+        <v>556.7922949488036</v>
       </c>
       <c r="AB19" t="n">
-        <v>622.8074198285547</v>
+        <v>761.8277818913709</v>
       </c>
       <c r="AC19" t="n">
-        <v>563.3675537958203</v>
+        <v>689.1200076196652</v>
       </c>
       <c r="AD19" t="n">
-        <v>455187.3544655403</v>
+        <v>556792.2949488036</v>
       </c>
       <c r="AE19" t="n">
-        <v>622807.4198285546</v>
+        <v>761827.7818913709</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.295737702319676e-06</v>
+        <v>1.889038230233635e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>24.04947916666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>563367.5537958203</v>
+        <v>689120.0076196652</v>
       </c>
     </row>
   </sheetData>
@@ -14399,28 +14399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>340.5907611424175</v>
+        <v>437.0798746953947</v>
       </c>
       <c r="AB2" t="n">
-        <v>466.0113051989703</v>
+        <v>598.0319671614137</v>
       </c>
       <c r="AC2" t="n">
-        <v>421.5358402817545</v>
+        <v>540.9566355586652</v>
       </c>
       <c r="AD2" t="n">
-        <v>340590.7611424176</v>
+        <v>437079.8746953947</v>
       </c>
       <c r="AE2" t="n">
-        <v>466011.3051989703</v>
+        <v>598031.9671614137</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.476138009395739e-06</v>
+        <v>2.365119832442747e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.26041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>421535.8402817545</v>
+        <v>540956.6355586651</v>
       </c>
     </row>
     <row r="3">
@@ -14505,28 +14505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.5267610144834</v>
+        <v>400.0157850589094</v>
       </c>
       <c r="AB3" t="n">
-        <v>415.2987050756482</v>
+        <v>547.3192445685431</v>
       </c>
       <c r="AC3" t="n">
-        <v>375.6631795386209</v>
+        <v>495.083864034305</v>
       </c>
       <c r="AD3" t="n">
-        <v>303526.7610144834</v>
+        <v>400015.7850589094</v>
       </c>
       <c r="AE3" t="n">
-        <v>415298.7050756481</v>
+        <v>547319.2445685432</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.560934685034905e-06</v>
+        <v>2.500984025358898e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.89322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>375663.1795386209</v>
+        <v>495083.864034305</v>
       </c>
     </row>
     <row r="4">
@@ -14611,28 +14611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>305.0678875814102</v>
+        <v>401.5569116258363</v>
       </c>
       <c r="AB4" t="n">
-        <v>417.4073424342232</v>
+        <v>549.4278819271182</v>
       </c>
       <c r="AC4" t="n">
-        <v>377.5705715071846</v>
+        <v>496.9912560028687</v>
       </c>
       <c r="AD4" t="n">
-        <v>305067.8875814102</v>
+        <v>401556.9116258363</v>
       </c>
       <c r="AE4" t="n">
-        <v>417407.3424342232</v>
+        <v>549427.8819271182</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.560762857931279e-06</v>
+        <v>2.500708717977102e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.89322916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>377570.5715071846</v>
+        <v>496991.2560028687</v>
       </c>
     </row>
   </sheetData>
@@ -14908,28 +14908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>657.3432762260635</v>
+        <v>788.9894300316092</v>
       </c>
       <c r="AB2" t="n">
-        <v>899.4060704711349</v>
+        <v>1079.530145926293</v>
       </c>
       <c r="AC2" t="n">
-        <v>813.5680174297171</v>
+        <v>976.501303929163</v>
       </c>
       <c r="AD2" t="n">
-        <v>657343.2762260635</v>
+        <v>788989.4300316093</v>
       </c>
       <c r="AE2" t="n">
-        <v>899406.0704711349</v>
+        <v>1079530.145926293</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.010558175235389e-06</v>
+        <v>1.500520431801841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.05729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>813568.0174297171</v>
+        <v>976501.303929163</v>
       </c>
     </row>
     <row r="3">
@@ -15014,28 +15014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>524.7440702625042</v>
+        <v>639.8384575695328</v>
       </c>
       <c r="AB3" t="n">
-        <v>717.977987007689</v>
+        <v>875.4552053271736</v>
       </c>
       <c r="AC3" t="n">
-        <v>649.4551756161081</v>
+        <v>791.9029892398452</v>
       </c>
       <c r="AD3" t="n">
-        <v>524744.0702625043</v>
+        <v>639838.4575695328</v>
       </c>
       <c r="AE3" t="n">
-        <v>717977.987007689</v>
+        <v>875455.2053271737</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.193737393459372e-06</v>
+        <v>1.772512847837217e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.13541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>649455.1756161081</v>
+        <v>791902.9892398452</v>
       </c>
     </row>
     <row r="4">
@@ -15120,28 +15120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>481.3562240128516</v>
+        <v>588.3879906984993</v>
       </c>
       <c r="AB4" t="n">
-        <v>658.6128216322306</v>
+        <v>805.0584067198245</v>
       </c>
       <c r="AC4" t="n">
-        <v>595.7557383045505</v>
+        <v>728.2247622890538</v>
       </c>
       <c r="AD4" t="n">
-        <v>481356.2240128516</v>
+        <v>588387.9906984993</v>
       </c>
       <c r="AE4" t="n">
-        <v>658612.8216322307</v>
+        <v>805058.4067198244</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.260510858312444e-06</v>
+        <v>1.871660972873064e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>595755.7383045505</v>
+        <v>728224.7622890539</v>
       </c>
     </row>
     <row r="5">
@@ -15226,28 +15226,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>467.8893232689579</v>
+        <v>566.6879666411837</v>
       </c>
       <c r="AB5" t="n">
-        <v>640.1868139167051</v>
+        <v>775.3674764671094</v>
       </c>
       <c r="AC5" t="n">
-        <v>579.0882829043306</v>
+        <v>701.3674927481758</v>
       </c>
       <c r="AD5" t="n">
-        <v>467889.3232689579</v>
+        <v>566687.9666411837</v>
       </c>
       <c r="AE5" t="n">
-        <v>640186.8139167051</v>
+        <v>775367.4764671094</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.293499537297233e-06</v>
+        <v>1.920643988445916e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.0390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>579088.2829043306</v>
+        <v>701367.4927481757</v>
       </c>
     </row>
     <row r="6">
@@ -15332,28 +15332,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>449.3424390196349</v>
+        <v>556.288864850711</v>
       </c>
       <c r="AB6" t="n">
-        <v>614.8101486559962</v>
+        <v>761.1389666213922</v>
       </c>
       <c r="AC6" t="n">
-        <v>556.1335309597303</v>
+        <v>688.4969319122949</v>
       </c>
       <c r="AD6" t="n">
-        <v>449342.4390196349</v>
+        <v>556288.864850711</v>
       </c>
       <c r="AE6" t="n">
-        <v>614810.1486559962</v>
+        <v>761138.9666213922</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.316636393598781e-06</v>
+        <v>1.954998592128233e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>556133.5309597303</v>
+        <v>688496.9319122949</v>
       </c>
     </row>
     <row r="7">
@@ -15438,28 +15438,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>441.5119343467478</v>
+        <v>540.2252368644021</v>
       </c>
       <c r="AB7" t="n">
-        <v>604.096106705067</v>
+        <v>739.1600021332736</v>
       </c>
       <c r="AC7" t="n">
-        <v>546.4420221353455</v>
+        <v>668.6156089472516</v>
       </c>
       <c r="AD7" t="n">
-        <v>441511.9343467478</v>
+        <v>540225.2368644021</v>
       </c>
       <c r="AE7" t="n">
-        <v>604096.106705067</v>
+        <v>739160.0021332735</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.330518507379711e-06</v>
+        <v>1.975611354337623e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.34895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>546442.0221353455</v>
+        <v>668615.6089472517</v>
       </c>
     </row>
     <row r="8">
@@ -15544,28 +15544,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>435.2108384431717</v>
+        <v>533.9241409608259</v>
       </c>
       <c r="AB8" t="n">
-        <v>595.4746693050621</v>
+        <v>730.5385647332685</v>
       </c>
       <c r="AC8" t="n">
-        <v>538.6434026205337</v>
+        <v>660.8169894324399</v>
       </c>
       <c r="AD8" t="n">
-        <v>435210.8384431716</v>
+        <v>533924.1409608258</v>
       </c>
       <c r="AE8" t="n">
-        <v>595474.669305062</v>
+        <v>730538.5647332685</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.339499588159129e-06</v>
+        <v>1.988946851035813e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.1796875</v>
       </c>
       <c r="AH8" t="n">
-        <v>538643.4026205337</v>
+        <v>660816.9894324399</v>
       </c>
     </row>
     <row r="9">
@@ -15650,28 +15650,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>419.4485899082521</v>
+        <v>526.3096748847565</v>
       </c>
       <c r="AB9" t="n">
-        <v>573.9080654782574</v>
+        <v>720.1201163214557</v>
       </c>
       <c r="AC9" t="n">
-        <v>519.1350851940407</v>
+        <v>651.3928631146664</v>
       </c>
       <c r="AD9" t="n">
-        <v>419448.5899082521</v>
+        <v>526309.6748847566</v>
       </c>
       <c r="AE9" t="n">
-        <v>573908.0654782574</v>
+        <v>720120.1163214557</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.350943624609358e-06</v>
+        <v>2.005939450706636e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.984375</v>
       </c>
       <c r="AH9" t="n">
-        <v>519135.0851940407</v>
+        <v>651392.8631146664</v>
       </c>
     </row>
     <row r="10">
@@ -15756,28 +15756,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>413.704129946221</v>
+        <v>520.5652149227254</v>
       </c>
       <c r="AB10" t="n">
-        <v>566.0482419305189</v>
+        <v>712.2602927737173</v>
       </c>
       <c r="AC10" t="n">
-        <v>512.0253921743666</v>
+        <v>644.2831700949923</v>
       </c>
       <c r="AD10" t="n">
-        <v>413704.129946221</v>
+        <v>520565.2149227255</v>
       </c>
       <c r="AE10" t="n">
-        <v>566048.2419305189</v>
+        <v>712260.2927737173</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.355894414291087e-06</v>
+        <v>2.01329059708597e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.89322916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>512025.3921743666</v>
+        <v>644283.1700949924</v>
       </c>
     </row>
     <row r="11">
@@ -15862,28 +15862,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>408.4466843532747</v>
+        <v>515.3077693297793</v>
       </c>
       <c r="AB11" t="n">
-        <v>558.8547729281202</v>
+        <v>705.0668237713185</v>
       </c>
       <c r="AC11" t="n">
-        <v>505.5184577574597</v>
+        <v>637.7762356780854</v>
       </c>
       <c r="AD11" t="n">
-        <v>408446.6843532748</v>
+        <v>515307.7693297793</v>
       </c>
       <c r="AE11" t="n">
-        <v>558854.7729281201</v>
+        <v>705066.8237713184</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.36072081227227e-06</v>
+        <v>2.02045704129497e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.80208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>505518.4577574597</v>
+        <v>637776.2356780854</v>
       </c>
     </row>
     <row r="12">
@@ -15968,28 +15968,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>408.3603432916251</v>
+        <v>515.2214282681296</v>
       </c>
       <c r="AB12" t="n">
-        <v>558.736637278472</v>
+        <v>704.9486881216707</v>
       </c>
       <c r="AC12" t="n">
-        <v>505.4115968084097</v>
+        <v>637.6693747290354</v>
       </c>
       <c r="AD12" t="n">
-        <v>408360.3432916251</v>
+        <v>515221.4282681296</v>
       </c>
       <c r="AE12" t="n">
-        <v>558736.6372784721</v>
+        <v>704948.6881216706</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.35980031368823e-06</v>
+        <v>2.019090245234491e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.828125</v>
       </c>
       <c r="AH12" t="n">
-        <v>505411.5968084097</v>
+        <v>637669.3747290354</v>
       </c>
     </row>
     <row r="13">
@@ -16074,28 +16074,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>408.9771090041164</v>
+        <v>515.838193980621</v>
       </c>
       <c r="AB13" t="n">
-        <v>559.5805233360858</v>
+        <v>705.7925741792841</v>
       </c>
       <c r="AC13" t="n">
-        <v>506.1749435650861</v>
+        <v>638.4327214857119</v>
       </c>
       <c r="AD13" t="n">
-        <v>408977.1090041164</v>
+        <v>515838.1939806209</v>
       </c>
       <c r="AE13" t="n">
-        <v>559580.5233360857</v>
+        <v>705792.574179284</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.360024218749213e-06</v>
+        <v>2.019422709141094e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.81510416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>506174.9435650861</v>
+        <v>638432.7214857119</v>
       </c>
     </row>
   </sheetData>
@@ -16371,28 +16371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>729.526472903264</v>
+        <v>879.8089013837613</v>
       </c>
       <c r="AB2" t="n">
-        <v>998.1703046627673</v>
+        <v>1203.793353302607</v>
       </c>
       <c r="AC2" t="n">
-        <v>902.9063317265735</v>
+        <v>1088.905005197988</v>
       </c>
       <c r="AD2" t="n">
-        <v>729526.472903264</v>
+        <v>879808.9013837613</v>
       </c>
       <c r="AE2" t="n">
-        <v>998170.3046627673</v>
+        <v>1203793.353302607</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.385664505792985e-07</v>
+        <v>1.380107978429381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.81510416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>902906.3317265735</v>
+        <v>1088905.005197988</v>
       </c>
     </row>
     <row r="3">
@@ -16477,28 +16477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>562.8870819735829</v>
+        <v>688.0939920891402</v>
       </c>
       <c r="AB3" t="n">
-        <v>770.1669383817008</v>
+        <v>941.4805565408345</v>
       </c>
       <c r="AC3" t="n">
-        <v>696.6632867186374</v>
+        <v>851.6269736008367</v>
       </c>
       <c r="AD3" t="n">
-        <v>562887.0819735829</v>
+        <v>688093.9920891402</v>
       </c>
       <c r="AE3" t="n">
-        <v>770166.9383817008</v>
+        <v>941480.5565408345</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.1366930896378e-06</v>
+        <v>1.671441804750647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.91666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>696663.2867186374</v>
+        <v>851626.9736008367</v>
       </c>
     </row>
     <row r="4">
@@ -16583,28 +16583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>523.0538409679222</v>
+        <v>631.6291692033086</v>
       </c>
       <c r="AB4" t="n">
-        <v>715.6653407191878</v>
+        <v>864.2228948162638</v>
       </c>
       <c r="AC4" t="n">
-        <v>647.3632450435621</v>
+        <v>781.7426746794498</v>
       </c>
       <c r="AD4" t="n">
-        <v>523053.8409679221</v>
+        <v>631629.1692033086</v>
       </c>
       <c r="AE4" t="n">
-        <v>715665.3407191879</v>
+        <v>864222.8948162638</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.207772971465382e-06</v>
+        <v>1.775960682402321e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.27604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>647363.245043562</v>
+        <v>781742.6746794498</v>
       </c>
     </row>
     <row r="5">
@@ -16689,28 +16689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>499.4189158601896</v>
+        <v>608.0794954415967</v>
       </c>
       <c r="AB5" t="n">
-        <v>683.3269934874826</v>
+        <v>832.0011922372076</v>
       </c>
       <c r="AC5" t="n">
-        <v>618.1112242844953</v>
+        <v>752.5961661710951</v>
       </c>
       <c r="AD5" t="n">
-        <v>499418.9158601896</v>
+        <v>608079.4954415967</v>
       </c>
       <c r="AE5" t="n">
-        <v>683326.9934874825</v>
+        <v>832001.1922372077</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.243337288195987e-06</v>
+        <v>1.828255964464664e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.52083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>618111.2242844952</v>
+        <v>752596.1661710951</v>
       </c>
     </row>
     <row r="6">
@@ -16795,28 +16795,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>487.8774022751298</v>
+        <v>588.1795652434413</v>
       </c>
       <c r="AB6" t="n">
-        <v>667.5353854247602</v>
+        <v>804.7732298171318</v>
       </c>
       <c r="AC6" t="n">
-        <v>603.8267451316179</v>
+        <v>727.966802269706</v>
       </c>
       <c r="AD6" t="n">
-        <v>487877.4022751298</v>
+        <v>588179.5652434413</v>
       </c>
       <c r="AE6" t="n">
-        <v>667535.3854247602</v>
+        <v>804773.2298171318</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.268371252063246e-06</v>
+        <v>1.86506696835639e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.02604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>603826.745131618</v>
+        <v>727966.802269706</v>
       </c>
     </row>
     <row r="7">
@@ -16901,28 +16901,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>471.0762843514855</v>
+        <v>579.651523078321</v>
       </c>
       <c r="AB7" t="n">
-        <v>644.5473546686196</v>
+        <v>793.104786296147</v>
       </c>
       <c r="AC7" t="n">
-        <v>583.0326597669396</v>
+        <v>717.4119786216006</v>
       </c>
       <c r="AD7" t="n">
-        <v>471076.2843514855</v>
+        <v>579651.523078321</v>
       </c>
       <c r="AE7" t="n">
-        <v>644547.3546686196</v>
+        <v>793104.786296147</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.285263693114862e-06</v>
+        <v>1.88990633125509e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.70052083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>583032.6597669396</v>
+        <v>717411.9786216007</v>
       </c>
     </row>
     <row r="8">
@@ -17007,28 +17007,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>463.1467720415747</v>
+        <v>571.5514185678179</v>
       </c>
       <c r="AB8" t="n">
-        <v>633.6978461008058</v>
+        <v>782.0218659534864</v>
       </c>
       <c r="AC8" t="n">
-        <v>573.2186130694571</v>
+        <v>707.3867966414672</v>
       </c>
       <c r="AD8" t="n">
-        <v>463146.7720415747</v>
+        <v>571551.4185678179</v>
       </c>
       <c r="AE8" t="n">
-        <v>633697.8461008058</v>
+        <v>782021.8659534864</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.298524137461298e-06</v>
+        <v>1.909405051914387e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.44010416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>573218.6130694571</v>
+        <v>707386.7966414671</v>
       </c>
     </row>
     <row r="9">
@@ -17113,28 +17113,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>458.8919740576047</v>
+        <v>559.1087961713445</v>
       </c>
       <c r="AB9" t="n">
-        <v>627.8762437906987</v>
+        <v>764.9973210608727</v>
       </c>
       <c r="AC9" t="n">
-        <v>567.9526163131565</v>
+        <v>691.9870504193055</v>
       </c>
       <c r="AD9" t="n">
-        <v>458891.9740576047</v>
+        <v>559108.7961713445</v>
       </c>
       <c r="AE9" t="n">
-        <v>627876.2437906987</v>
+        <v>764997.3210608726</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.305934385772541e-06</v>
+        <v>1.92030139581223e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.30989583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>567952.6163131564</v>
+        <v>691987.0504193056</v>
       </c>
     </row>
     <row r="10">
@@ -17219,28 +17219,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>453.3262866258863</v>
+        <v>553.5431087396262</v>
       </c>
       <c r="AB10" t="n">
-        <v>620.2610247058217</v>
+        <v>757.3821019759956</v>
       </c>
       <c r="AC10" t="n">
-        <v>561.0641830497129</v>
+        <v>685.098617155862</v>
       </c>
       <c r="AD10" t="n">
-        <v>453326.2866258863</v>
+        <v>553543.1087396261</v>
       </c>
       <c r="AE10" t="n">
-        <v>620261.0247058216</v>
+        <v>757382.1019759956</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.313564016435104e-06</v>
+        <v>1.931520328838627e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>561064.1830497129</v>
+        <v>685098.617155862</v>
       </c>
     </row>
     <row r="11">
@@ -17325,28 +17325,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>446.8471858103272</v>
+        <v>547.064007924067</v>
       </c>
       <c r="AB11" t="n">
-        <v>611.396033132219</v>
+        <v>748.517110402393</v>
       </c>
       <c r="AC11" t="n">
-        <v>553.0452538298013</v>
+        <v>677.0796879359502</v>
       </c>
       <c r="AD11" t="n">
-        <v>446847.1858103272</v>
+        <v>547064.007924067</v>
       </c>
       <c r="AE11" t="n">
-        <v>611396.033132219</v>
+        <v>748517.1104023929</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.320145486974694e-06</v>
+        <v>1.941198002695263e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.03645833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>553045.2538298012</v>
+        <v>677079.6879359502</v>
       </c>
     </row>
     <row r="12">
@@ -17431,28 +17431,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>433.9267612773946</v>
+        <v>542.4166591496585</v>
       </c>
       <c r="AB12" t="n">
-        <v>593.7177382773597</v>
+        <v>742.1584027826894</v>
       </c>
       <c r="AC12" t="n">
-        <v>537.054150624247</v>
+        <v>671.327846446969</v>
       </c>
       <c r="AD12" t="n">
-        <v>433926.7612773947</v>
+        <v>542416.6591496585</v>
       </c>
       <c r="AE12" t="n">
-        <v>593717.7382773596</v>
+        <v>742158.4027826894</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.324094369298449e-06</v>
+        <v>1.947004607009245e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.97135416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>537054.1506242469</v>
+        <v>671327.8464469691</v>
       </c>
     </row>
     <row r="13">
@@ -17537,28 +17537,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>429.3821744748357</v>
+        <v>537.8720723470996</v>
       </c>
       <c r="AB13" t="n">
-        <v>587.4996341210789</v>
+        <v>735.9402986264087</v>
       </c>
       <c r="AC13" t="n">
-        <v>531.4294936014776</v>
+        <v>665.7031894241998</v>
       </c>
       <c r="AD13" t="n">
-        <v>429382.1744748357</v>
+        <v>537872.0723470995</v>
       </c>
       <c r="AE13" t="n">
-        <v>587499.6341210789</v>
+        <v>735940.2986264087</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.328213882339897e-06</v>
+        <v>1.95306211397877e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.89322916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>531429.4936014776</v>
+        <v>665703.1894241998</v>
       </c>
     </row>
     <row r="14">
@@ -17643,28 +17643,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>427.0856124087032</v>
+        <v>535.575510280967</v>
       </c>
       <c r="AB14" t="n">
-        <v>584.3573765850286</v>
+        <v>732.7980410903584</v>
       </c>
       <c r="AC14" t="n">
-        <v>528.5871287144818</v>
+        <v>662.8608245372038</v>
       </c>
       <c r="AD14" t="n">
-        <v>427085.6124087032</v>
+        <v>535575.510280967</v>
       </c>
       <c r="AE14" t="n">
-        <v>584357.3765850286</v>
+        <v>732798.0410903584</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.326531950979779e-06</v>
+        <v>1.950588930659852e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.93229166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>528587.1287144817</v>
+        <v>662860.8245372039</v>
       </c>
     </row>
     <row r="15">
@@ -17749,28 +17749,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>425.2884073170256</v>
+        <v>533.7783051892894</v>
       </c>
       <c r="AB15" t="n">
-        <v>581.8983612915025</v>
+        <v>730.3390257968323</v>
       </c>
       <c r="AC15" t="n">
-        <v>526.3627983893201</v>
+        <v>660.6364942120423</v>
       </c>
       <c r="AD15" t="n">
-        <v>425288.4073170256</v>
+        <v>533778.3051892894</v>
       </c>
       <c r="AE15" t="n">
-        <v>581898.3612915025</v>
+        <v>730339.0257968323</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.331699624144199e-06</v>
+        <v>1.958187696799136e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>23.828125</v>
       </c>
       <c r="AH15" t="n">
-        <v>526362.7983893201</v>
+        <v>660636.4942120423</v>
       </c>
     </row>
   </sheetData>
@@ -18046,28 +18046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>905.4992285448844</v>
+        <v>1076.968451002325</v>
       </c>
       <c r="AB2" t="n">
-        <v>1238.9439923017</v>
+        <v>1473.555747156176</v>
       </c>
       <c r="AC2" t="n">
-        <v>1120.700916545239</v>
+        <v>1332.92165479607</v>
       </c>
       <c r="AD2" t="n">
-        <v>905499.2285448845</v>
+        <v>1076968.451002325</v>
       </c>
       <c r="AE2" t="n">
-        <v>1238943.9923017</v>
+        <v>1473555.747156176</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.140252472654025e-07</v>
+        <v>1.177709347475123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.63020833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1120700.916545239</v>
+        <v>1332921.65479607</v>
       </c>
     </row>
     <row r="3">
@@ -18152,28 +18152,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>660.6908269223352</v>
+        <v>789.4207550472729</v>
       </c>
       <c r="AB3" t="n">
-        <v>903.9863370172876</v>
+        <v>1080.120303841441</v>
       </c>
       <c r="AC3" t="n">
-        <v>817.7111497651495</v>
+        <v>977.0351380011807</v>
       </c>
       <c r="AD3" t="n">
-        <v>660690.8269223352</v>
+        <v>789420.7550472729</v>
       </c>
       <c r="AE3" t="n">
-        <v>903986.3370172876</v>
+        <v>1080120.303841441</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.031730768189929e-06</v>
+        <v>1.492679709698007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>817711.1497651495</v>
+        <v>977035.1380011807</v>
       </c>
     </row>
     <row r="4">
@@ -18258,28 +18258,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>599.4991226107613</v>
+        <v>719.6470555273698</v>
       </c>
       <c r="AB4" t="n">
-        <v>820.2611475907255</v>
+        <v>984.6528499599351</v>
       </c>
       <c r="AC4" t="n">
-        <v>741.976574908417</v>
+        <v>890.6789639287127</v>
       </c>
       <c r="AD4" t="n">
-        <v>599499.1226107613</v>
+        <v>719647.0555273698</v>
       </c>
       <c r="AE4" t="n">
-        <v>820261.1475907254</v>
+        <v>984652.8499599351</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.112549796005313e-06</v>
+        <v>1.609606457156734e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.5390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>741976.574908417</v>
+        <v>890678.9639287128</v>
       </c>
     </row>
     <row r="5">
@@ -18364,28 +18364,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>566.6432101860578</v>
+        <v>678.1238965483166</v>
       </c>
       <c r="AB5" t="n">
-        <v>775.3062387106905</v>
+        <v>927.8390319723075</v>
       </c>
       <c r="AC5" t="n">
-        <v>701.3120994372819</v>
+        <v>839.2873769911299</v>
       </c>
       <c r="AD5" t="n">
-        <v>566643.2101860578</v>
+        <v>678123.8965483166</v>
       </c>
       <c r="AE5" t="n">
-        <v>775306.2387106905</v>
+        <v>927839.0319723075</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.161276493707106e-06</v>
+        <v>1.680102903732287e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.38020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>701312.0994372818</v>
+        <v>839287.3769911299</v>
       </c>
     </row>
     <row r="6">
@@ -18470,28 +18470,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>546.3252989136025</v>
+        <v>666.3025501210678</v>
       </c>
       <c r="AB6" t="n">
-        <v>747.506376144734</v>
+        <v>911.6645442695483</v>
       </c>
       <c r="AC6" t="n">
-        <v>676.1654167372679</v>
+        <v>824.6565596936859</v>
       </c>
       <c r="AD6" t="n">
-        <v>546325.2989136025</v>
+        <v>666302.5501210678</v>
       </c>
       <c r="AE6" t="n">
-        <v>747506.376144734</v>
+        <v>911664.5442695483</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.185886887621194e-06</v>
+        <v>1.715708545025395e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.83333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>676165.416737268</v>
+        <v>824656.559693686</v>
       </c>
     </row>
     <row r="7">
@@ -18576,28 +18576,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>536.9526398864862</v>
+        <v>648.3479853941732</v>
       </c>
       <c r="AB7" t="n">
-        <v>734.6822905712999</v>
+        <v>887.0983167107191</v>
       </c>
       <c r="AC7" t="n">
-        <v>664.5652438922452</v>
+        <v>802.4348984141545</v>
       </c>
       <c r="AD7" t="n">
-        <v>536952.6398864861</v>
+        <v>648347.9853941732</v>
       </c>
       <c r="AE7" t="n">
-        <v>734682.2905712998</v>
+        <v>887098.3167107191</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.204074109892313e-06</v>
+        <v>1.742021318179863e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.44270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>664565.2438922452</v>
+        <v>802434.8984141545</v>
       </c>
     </row>
     <row r="8">
@@ -18682,28 +18682,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>529.1341652605294</v>
+        <v>640.5295107682165</v>
       </c>
       <c r="AB8" t="n">
-        <v>723.9847086613092</v>
+        <v>876.4007348007283</v>
       </c>
       <c r="AC8" t="n">
-        <v>654.8886241855935</v>
+        <v>792.7582787075028</v>
       </c>
       <c r="AD8" t="n">
-        <v>529134.1652605294</v>
+        <v>640529.5107682165</v>
       </c>
       <c r="AE8" t="n">
-        <v>723984.7086613092</v>
+        <v>876400.7348007283</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.218567420266192e-06</v>
+        <v>1.762989841159361e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.14322916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>654888.6241855934</v>
+        <v>792758.2787075028</v>
       </c>
     </row>
     <row r="9">
@@ -18788,28 +18788,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>514.3214792167105</v>
+        <v>625.802076070418</v>
       </c>
       <c r="AB9" t="n">
-        <v>703.7173381265687</v>
+        <v>856.2500089186371</v>
       </c>
       <c r="AC9" t="n">
-        <v>636.5555430492554</v>
+        <v>774.5307098218769</v>
       </c>
       <c r="AD9" t="n">
-        <v>514321.4792167104</v>
+        <v>625802.076070418</v>
       </c>
       <c r="AE9" t="n">
-        <v>703717.3381265687</v>
+        <v>856250.0089186372</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.230119717983035e-06</v>
+        <v>1.779703387884903e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.90885416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>636555.5430492555</v>
+        <v>774530.709821877</v>
       </c>
     </row>
     <row r="10">
@@ -18894,28 +18894,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>509.678889572702</v>
+        <v>621.1594864264096</v>
       </c>
       <c r="AB10" t="n">
-        <v>697.3651421590366</v>
+        <v>849.8978129511052</v>
       </c>
       <c r="AC10" t="n">
-        <v>630.8095917495017</v>
+        <v>768.7847585221231</v>
       </c>
       <c r="AD10" t="n">
-        <v>509678.889572702</v>
+        <v>621159.4864264096</v>
       </c>
       <c r="AE10" t="n">
-        <v>697365.1421590366</v>
+        <v>849897.8129511052</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.236966395448617e-06</v>
+        <v>1.789608972604114e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.765625</v>
       </c>
       <c r="AH10" t="n">
-        <v>630809.5917495016</v>
+        <v>768784.7585221231</v>
       </c>
     </row>
     <row r="11">
@@ -19000,28 +19000,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>504.7058101618051</v>
+        <v>616.1864070155128</v>
       </c>
       <c r="AB11" t="n">
-        <v>690.5607555122683</v>
+        <v>843.0934263043366</v>
       </c>
       <c r="AC11" t="n">
-        <v>624.6546062142842</v>
+        <v>762.6297729869057</v>
       </c>
       <c r="AD11" t="n">
-        <v>504705.8101618051</v>
+        <v>616186.4070155128</v>
       </c>
       <c r="AE11" t="n">
-        <v>690560.7555122683</v>
+        <v>843093.4263043366</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.244424803546864e-06</v>
+        <v>1.800399592384148e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.62239583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>624654.6062142842</v>
+        <v>762629.7729869056</v>
       </c>
     </row>
     <row r="12">
@@ -19106,28 +19106,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>500.4421622741531</v>
+        <v>611.9227591278608</v>
       </c>
       <c r="AB12" t="n">
-        <v>684.7270443735132</v>
+        <v>837.2597151655816</v>
       </c>
       <c r="AC12" t="n">
-        <v>619.3776562789469</v>
+        <v>757.3528230515684</v>
       </c>
       <c r="AD12" t="n">
-        <v>500442.1622741531</v>
+        <v>611922.7591278608</v>
       </c>
       <c r="AE12" t="n">
-        <v>684727.0443735132</v>
+        <v>837259.7151655816</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.248353996456665e-06</v>
+        <v>1.806084240659433e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.54427083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>619377.6562789469</v>
+        <v>757352.8230515684</v>
       </c>
     </row>
     <row r="13">
@@ -19212,28 +19212,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>495.473669615828</v>
+        <v>598.3723607697575</v>
       </c>
       <c r="AB13" t="n">
-        <v>677.9289335239667</v>
+        <v>818.7194623306398</v>
       </c>
       <c r="AC13" t="n">
-        <v>613.2283475876725</v>
+        <v>740.5820259257853</v>
       </c>
       <c r="AD13" t="n">
-        <v>495473.669615828</v>
+        <v>598372.3607697575</v>
       </c>
       <c r="AE13" t="n">
-        <v>677928.9335239667</v>
+        <v>818719.4623306398</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.254824224302148e-06</v>
+        <v>1.815445188418138e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.4140625</v>
       </c>
       <c r="AH13" t="n">
-        <v>613228.3475876725</v>
+        <v>740582.0259257853</v>
       </c>
     </row>
     <row r="14">
@@ -19318,28 +19318,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>493.4889114392372</v>
+        <v>596.3876025931668</v>
       </c>
       <c r="AB14" t="n">
-        <v>675.2132998254041</v>
+        <v>816.0038286320774</v>
       </c>
       <c r="AC14" t="n">
-        <v>610.7718901578852</v>
+        <v>738.1255684959976</v>
       </c>
       <c r="AD14" t="n">
-        <v>493488.9114392372</v>
+        <v>596387.6025931668</v>
       </c>
       <c r="AE14" t="n">
-        <v>675213.2998254041</v>
+        <v>816003.8286320774</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.255412426833555e-06</v>
+        <v>1.81629618366893e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.40104166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>610771.8901578852</v>
+        <v>738125.5684959977</v>
       </c>
     </row>
     <row r="15">
@@ -19424,28 +19424,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>489.5124605531927</v>
+        <v>592.4111517071224</v>
       </c>
       <c r="AB15" t="n">
-        <v>669.7725442944862</v>
+        <v>810.5630731011594</v>
       </c>
       <c r="AC15" t="n">
-        <v>605.8503926986896</v>
+        <v>733.2040710368022</v>
       </c>
       <c r="AD15" t="n">
-        <v>489512.4605531928</v>
+        <v>592411.1517071223</v>
       </c>
       <c r="AE15" t="n">
-        <v>669772.5442944863</v>
+        <v>810563.0731011594</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.259788653667227e-06</v>
+        <v>1.822627588334817e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.32291666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>605850.3926986896</v>
+        <v>733204.0710368023</v>
       </c>
     </row>
     <row r="16">
@@ -19530,28 +19530,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>483.0568016945628</v>
+        <v>585.9554928484924</v>
       </c>
       <c r="AB16" t="n">
-        <v>660.9396270405404</v>
+        <v>801.7301558472136</v>
       </c>
       <c r="AC16" t="n">
-        <v>597.860476670383</v>
+        <v>725.2141550084958</v>
       </c>
       <c r="AD16" t="n">
-        <v>483056.8016945628</v>
+        <v>585955.4928484925</v>
       </c>
       <c r="AE16" t="n">
-        <v>660939.6270405403</v>
+        <v>801730.1558472136</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.266870612145372e-06</v>
+        <v>1.832873571154344e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>24.1796875</v>
       </c>
       <c r="AH16" t="n">
-        <v>597860.476670383</v>
+        <v>725214.1550084958</v>
       </c>
     </row>
     <row r="17">
@@ -19636,28 +19636,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>481.2473779072723</v>
+        <v>584.146069061202</v>
       </c>
       <c r="AB17" t="n">
-        <v>658.4638935886259</v>
+        <v>799.254422395299</v>
       </c>
       <c r="AC17" t="n">
-        <v>595.6210237444055</v>
+        <v>722.9747020825182</v>
       </c>
       <c r="AD17" t="n">
-        <v>481247.3779072723</v>
+        <v>584146.069061202</v>
       </c>
       <c r="AE17" t="n">
-        <v>658463.8935886258</v>
+        <v>799254.422395299</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.267882320499393e-06</v>
+        <v>1.834337282985705e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>595621.0237444055</v>
+        <v>722974.7020825183</v>
       </c>
     </row>
     <row r="18">
@@ -19742,28 +19742,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>479.1414292946543</v>
+        <v>582.0401204485839</v>
       </c>
       <c r="AB18" t="n">
-        <v>655.5824417889461</v>
+        <v>796.3729705956194</v>
       </c>
       <c r="AC18" t="n">
-        <v>593.0145736603444</v>
+        <v>720.368251998457</v>
       </c>
       <c r="AD18" t="n">
-        <v>479141.4292946543</v>
+        <v>582040.120448584</v>
       </c>
       <c r="AE18" t="n">
-        <v>655582.441788946</v>
+        <v>796372.9705956194</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.266964724550398e-06</v>
+        <v>1.833009730394471e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>24.1796875</v>
       </c>
       <c r="AH18" t="n">
-        <v>593014.5736603444</v>
+        <v>720368.251998457</v>
       </c>
     </row>
     <row r="19">
@@ -19848,28 +19848,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>473.7943642432406</v>
+        <v>576.6930553971703</v>
       </c>
       <c r="AB19" t="n">
-        <v>648.2663514897406</v>
+        <v>789.0568802964137</v>
       </c>
       <c r="AC19" t="n">
-        <v>586.3967207510976</v>
+        <v>713.7503990892104</v>
       </c>
       <c r="AD19" t="n">
-        <v>473794.3642432406</v>
+        <v>576693.0553971702</v>
       </c>
       <c r="AE19" t="n">
-        <v>648266.3514897407</v>
+        <v>789056.8802964138</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.273717289610955e-06</v>
+        <v>1.842779155873555e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>24.04947916666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>586396.7207510977</v>
+        <v>713750.3990892104</v>
       </c>
     </row>
     <row r="20">
@@ -19954,28 +19954,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>474.0355769111116</v>
+        <v>576.9342680650411</v>
       </c>
       <c r="AB20" t="n">
-        <v>648.5963893034735</v>
+        <v>789.3869181101469</v>
       </c>
       <c r="AC20" t="n">
-        <v>586.6952602190991</v>
+        <v>714.0489385572117</v>
       </c>
       <c r="AD20" t="n">
-        <v>474035.5769111116</v>
+        <v>576934.2680650412</v>
       </c>
       <c r="AE20" t="n">
-        <v>648596.3893034735</v>
+        <v>789386.9181101469</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.270540995941355e-06</v>
+        <v>1.838183781519282e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>24.11458333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>586695.260219099</v>
+        <v>714048.9385572118</v>
       </c>
     </row>
     <row r="21">
@@ -20060,28 +20060,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>474.4321125667587</v>
+        <v>577.3308037206883</v>
       </c>
       <c r="AB21" t="n">
-        <v>649.1389468814484</v>
+        <v>789.9294756881217</v>
       </c>
       <c r="AC21" t="n">
-        <v>587.1860368633163</v>
+        <v>714.5397152014289</v>
       </c>
       <c r="AD21" t="n">
-        <v>474432.1125667588</v>
+        <v>577330.8037206883</v>
       </c>
       <c r="AE21" t="n">
-        <v>649138.9468814484</v>
+        <v>789929.4756881216</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.27082333315643e-06</v>
+        <v>1.838592259239662e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>24.1015625</v>
       </c>
       <c r="AH21" t="n">
-        <v>587186.0368633163</v>
+        <v>714539.7152014289</v>
       </c>
     </row>
     <row r="22">
@@ -20166,28 +20166,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>475.9758821578613</v>
+        <v>578.8745733117911</v>
       </c>
       <c r="AB22" t="n">
-        <v>651.2512005423027</v>
+        <v>792.0417293489759</v>
       </c>
       <c r="AC22" t="n">
-        <v>589.0966999993452</v>
+        <v>716.450378337458</v>
       </c>
       <c r="AD22" t="n">
-        <v>475975.8821578614</v>
+        <v>578874.5733117911</v>
       </c>
       <c r="AE22" t="n">
-        <v>651251.2005423027</v>
+        <v>792041.7293489759</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.270235130625023e-06</v>
+        <v>1.83774126398887e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>25</v>
+        <v>24.11458333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>589096.6999993452</v>
+        <v>716450.378337458</v>
       </c>
     </row>
   </sheetData>
@@ -20463,28 +20463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>581.6904596373622</v>
+        <v>710.9674743133812</v>
       </c>
       <c r="AB2" t="n">
-        <v>795.8945492477596</v>
+        <v>972.7770640268577</v>
       </c>
       <c r="AC2" t="n">
-        <v>719.9354905125684</v>
+        <v>879.936586337318</v>
       </c>
       <c r="AD2" t="n">
-        <v>581690.4596373622</v>
+        <v>710967.4743133812</v>
       </c>
       <c r="AE2" t="n">
-        <v>795894.5492477596</v>
+        <v>972777.0640268577</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.088786574492448e-06</v>
+        <v>1.635014046882977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.44270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>719935.4905125684</v>
+        <v>879936.5863373179</v>
       </c>
     </row>
     <row r="3">
@@ -20569,28 +20569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>478.1610648626641</v>
+        <v>583.3213335482296</v>
       </c>
       <c r="AB3" t="n">
-        <v>654.2410639224709</v>
+        <v>798.1259828816876</v>
       </c>
       <c r="AC3" t="n">
-        <v>591.8012150148097</v>
+        <v>721.9539592523109</v>
       </c>
       <c r="AD3" t="n">
-        <v>478161.0648626641</v>
+        <v>583321.3335482297</v>
       </c>
       <c r="AE3" t="n">
-        <v>654241.0639224709</v>
+        <v>798125.9828816876</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.256476251938533e-06</v>
+        <v>1.886831055436222e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.38020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>591801.2150148097</v>
+        <v>721953.9592523109</v>
       </c>
     </row>
     <row r="4">
@@ -20675,28 +20675,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>446.0192521237527</v>
+        <v>543.169052430691</v>
       </c>
       <c r="AB4" t="n">
-        <v>610.2632177363914</v>
+        <v>743.1878604630469</v>
       </c>
       <c r="AC4" t="n">
-        <v>552.0205527454349</v>
+        <v>672.2590541311662</v>
       </c>
       <c r="AD4" t="n">
-        <v>446019.2521237527</v>
+        <v>543169.052430691</v>
       </c>
       <c r="AE4" t="n">
-        <v>610263.2177363915</v>
+        <v>743187.8604630469</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.321816173311346e-06</v>
+        <v>1.984951010044021e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>552020.5527454349</v>
+        <v>672259.0541311662</v>
       </c>
     </row>
     <row r="5">
@@ -20781,28 +20781,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>426.4339281171061</v>
+        <v>531.5941072941206</v>
       </c>
       <c r="AB5" t="n">
-        <v>583.4657133869833</v>
+        <v>727.3505098766517</v>
       </c>
       <c r="AC5" t="n">
-        <v>527.7805646006009</v>
+        <v>657.9331980568755</v>
       </c>
       <c r="AD5" t="n">
-        <v>426433.9281171061</v>
+        <v>531594.1072941206</v>
       </c>
       <c r="AE5" t="n">
-        <v>583465.7133869834</v>
+        <v>727350.5098766517</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.350400798049044e-06</v>
+        <v>2.027876101210581e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.54427083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>527780.5646006009</v>
+        <v>657933.1980568755</v>
       </c>
     </row>
     <row r="6">
@@ -20887,28 +20887,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>418.5082902509059</v>
+        <v>515.5727497032725</v>
       </c>
       <c r="AB6" t="n">
-        <v>572.6215060039831</v>
+        <v>705.4293816084408</v>
       </c>
       <c r="AC6" t="n">
-        <v>517.9713131502934</v>
+        <v>638.1041915040859</v>
       </c>
       <c r="AD6" t="n">
-        <v>418508.2902509058</v>
+        <v>515572.7497032725</v>
       </c>
       <c r="AE6" t="n">
-        <v>572621.5060039831</v>
+        <v>705429.3816084409</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.365902166228259e-06</v>
+        <v>2.051154267301796e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.27083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>517971.3131502935</v>
+        <v>638104.1915040859</v>
       </c>
     </row>
     <row r="7">
@@ -20993,28 +20993,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>410.5311986358649</v>
+        <v>507.5956580882315</v>
       </c>
       <c r="AB7" t="n">
-        <v>561.7068973318396</v>
+        <v>694.5147729362974</v>
       </c>
       <c r="AC7" t="n">
-        <v>508.0983794110699</v>
+        <v>628.2312577648621</v>
       </c>
       <c r="AD7" t="n">
-        <v>410531.1986358649</v>
+        <v>507595.6580882315</v>
       </c>
       <c r="AE7" t="n">
-        <v>561706.8973318397</v>
+        <v>694514.7729362973</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.377712732460041e-06</v>
+        <v>2.068890012895103e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH7" t="n">
-        <v>508098.3794110699</v>
+        <v>628231.2577648622</v>
       </c>
     </row>
     <row r="8">
@@ -21099,28 +21099,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>394.6097453993482</v>
+        <v>499.6845837217911</v>
       </c>
       <c r="AB8" t="n">
-        <v>539.9224626086939</v>
+        <v>683.6904919761646</v>
       </c>
       <c r="AC8" t="n">
-        <v>488.393020563255</v>
+        <v>618.4400309875908</v>
       </c>
       <c r="AD8" t="n">
-        <v>394609.7453993482</v>
+        <v>499684.583721791</v>
       </c>
       <c r="AE8" t="n">
-        <v>539922.4626086939</v>
+        <v>683690.4919761646</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.389421483465687e-06</v>
+        <v>2.086472864129846e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.85416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>488393.0205632551</v>
+        <v>618440.0309875908</v>
       </c>
     </row>
     <row r="9">
@@ -21205,28 +21205,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>387.7621101270388</v>
+        <v>484.9118209254261</v>
       </c>
       <c r="AB9" t="n">
-        <v>530.553225932773</v>
+        <v>663.47774618988</v>
       </c>
       <c r="AC9" t="n">
-        <v>479.9179706858777</v>
+        <v>600.1563612903825</v>
       </c>
       <c r="AD9" t="n">
-        <v>387762.1101270388</v>
+        <v>484911.8209254261</v>
       </c>
       <c r="AE9" t="n">
-        <v>530553.225932773</v>
+        <v>663477.74618988</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.399144837561681e-06</v>
+        <v>2.101074275372612e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.68489583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>479917.9706858777</v>
+        <v>600156.3612903825</v>
       </c>
     </row>
     <row r="10">
@@ -21311,28 +21311,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>387.6533479883657</v>
+        <v>484.8030587867528</v>
       </c>
       <c r="AB10" t="n">
-        <v>530.4044127763933</v>
+        <v>663.3289330335004</v>
       </c>
       <c r="AC10" t="n">
-        <v>479.7833600482825</v>
+        <v>600.0217506527871</v>
       </c>
       <c r="AD10" t="n">
-        <v>387653.3479883657</v>
+        <v>484803.0587867529</v>
       </c>
       <c r="AE10" t="n">
-        <v>530404.4127763934</v>
+        <v>663328.9330335004</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.398483038591797e-06</v>
+        <v>2.100080462041953e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.69791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>479783.3600482825</v>
+        <v>600021.750652787</v>
       </c>
     </row>
   </sheetData>
@@ -21608,28 +21608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>480.6705437953329</v>
+        <v>590.5999803384384</v>
       </c>
       <c r="AB2" t="n">
-        <v>657.6746437085452</v>
+        <v>808.0849485312847</v>
       </c>
       <c r="AC2" t="n">
-        <v>594.9070987651606</v>
+        <v>730.9624551978065</v>
       </c>
       <c r="AD2" t="n">
-        <v>480670.543795333</v>
+        <v>590599.9803384384</v>
       </c>
       <c r="AE2" t="n">
-        <v>657674.6437085452</v>
+        <v>808084.9485312847</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.22600067304085e-06</v>
+        <v>1.880374546403213e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.1640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>594907.0987651607</v>
+        <v>730962.4551978066</v>
       </c>
     </row>
     <row r="3">
@@ -21714,28 +21714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>410.5735703114402</v>
+        <v>512.5594740078935</v>
       </c>
       <c r="AB3" t="n">
-        <v>561.764872127668</v>
+        <v>701.306484865682</v>
       </c>
       <c r="AC3" t="n">
-        <v>508.1508211737525</v>
+        <v>634.374778239934</v>
       </c>
       <c r="AD3" t="n">
-        <v>410573.5703114402</v>
+        <v>512559.4740078935</v>
       </c>
       <c r="AE3" t="n">
-        <v>561764.872127668</v>
+        <v>701306.484865682</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.367455150660888e-06</v>
+        <v>2.097329891567709e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.24739583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>508150.8211737525</v>
+        <v>634374.778239934</v>
       </c>
     </row>
     <row r="4">
@@ -21820,28 +21820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>385.486909847399</v>
+        <v>479.6999624063437</v>
       </c>
       <c r="AB4" t="n">
-        <v>527.4401965354176</v>
+        <v>656.3466514331014</v>
       </c>
       <c r="AC4" t="n">
-        <v>477.1020444450417</v>
+        <v>593.7058482086364</v>
       </c>
       <c r="AD4" t="n">
-        <v>385486.909847399</v>
+        <v>479699.9624063437</v>
       </c>
       <c r="AE4" t="n">
-        <v>527440.1965354176</v>
+        <v>656346.6514331014</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.417461363367803e-06</v>
+        <v>2.174026757730828e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.36197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>477102.0444450417</v>
+        <v>593705.8482086364</v>
       </c>
     </row>
     <row r="5">
@@ -21926,28 +21926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>366.4436930936403</v>
+        <v>468.4295072815428</v>
       </c>
       <c r="AB5" t="n">
-        <v>501.3844272454949</v>
+        <v>640.9259175139605</v>
       </c>
       <c r="AC5" t="n">
-        <v>453.5330012066474</v>
+        <v>579.7568474916022</v>
       </c>
       <c r="AD5" t="n">
-        <v>366443.6930936403</v>
+        <v>468429.5072815428</v>
       </c>
       <c r="AE5" t="n">
-        <v>501384.4272454949</v>
+        <v>640925.9175139605</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.443127330441129e-06</v>
+        <v>2.213391851286448e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.91927083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>453533.0012066474</v>
+        <v>579756.8474916022</v>
       </c>
     </row>
     <row r="6">
@@ -22032,28 +22032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>357.416701223454</v>
+        <v>451.7150051284193</v>
       </c>
       <c r="AB6" t="n">
-        <v>489.0332987259312</v>
+        <v>618.0563982762643</v>
       </c>
       <c r="AC6" t="n">
-        <v>442.3606470580732</v>
+        <v>559.06996307238</v>
       </c>
       <c r="AD6" t="n">
-        <v>357416.701223454</v>
+        <v>451715.0051284193</v>
       </c>
       <c r="AE6" t="n">
-        <v>489033.2987259312</v>
+        <v>618056.3982762643</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.457047405558378e-06</v>
+        <v>2.234741721241717e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.69791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>442360.6470580732</v>
+        <v>559069.9630723801</v>
       </c>
     </row>
     <row r="7">
@@ -22138,28 +22138,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>356.3953129734784</v>
+        <v>450.6936168784437</v>
       </c>
       <c r="AB7" t="n">
-        <v>487.6357902618453</v>
+        <v>616.6588898121785</v>
       </c>
       <c r="AC7" t="n">
-        <v>441.0965148403841</v>
+        <v>557.8058308546911</v>
       </c>
       <c r="AD7" t="n">
-        <v>356395.3129734785</v>
+        <v>450693.6168784437</v>
       </c>
       <c r="AE7" t="n">
-        <v>487635.7902618453</v>
+        <v>616658.8898121784</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.46062685344567e-06</v>
+        <v>2.240231687801643e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.6328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>441096.5148403841</v>
+        <v>557805.8308546911</v>
       </c>
     </row>
   </sheetData>
@@ -41288,28 +41288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>408.4508117024662</v>
+        <v>515.7211121091742</v>
       </c>
       <c r="AB2" t="n">
-        <v>558.8604201493694</v>
+        <v>705.6323775974831</v>
       </c>
       <c r="AC2" t="n">
-        <v>505.5235660158389</v>
+        <v>638.2878138408406</v>
       </c>
       <c r="AD2" t="n">
-        <v>408450.8117024662</v>
+        <v>515721.1121091743</v>
       </c>
       <c r="AE2" t="n">
-        <v>558860.4201493694</v>
+        <v>705632.3775974831</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.338182537434162e-06</v>
+        <v>2.090883818601154e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.69270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>505523.5660158389</v>
+        <v>638287.8138408406</v>
       </c>
     </row>
     <row r="3">
@@ -41394,28 +41394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>358.844988207785</v>
+        <v>458.2764363238095</v>
       </c>
       <c r="AB3" t="n">
-        <v>490.9875439894676</v>
+        <v>627.0340379077119</v>
       </c>
       <c r="AC3" t="n">
-        <v>444.1283818964581</v>
+        <v>567.1907893775987</v>
       </c>
       <c r="AD3" t="n">
-        <v>358844.9882077851</v>
+        <v>458276.4363238096</v>
       </c>
       <c r="AE3" t="n">
-        <v>490987.5439894676</v>
+        <v>627034.0379077119</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.459688381801404e-06</v>
+        <v>2.280734303677773e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.46614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>444128.381896458</v>
+        <v>567190.7893775987</v>
       </c>
     </row>
     <row r="4">
@@ -41500,28 +41500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>336.2387000499498</v>
+        <v>435.755399511995</v>
       </c>
       <c r="AB4" t="n">
-        <v>460.0566232128713</v>
+        <v>596.219761783765</v>
       </c>
       <c r="AC4" t="n">
-        <v>416.1494647869602</v>
+        <v>539.317384518813</v>
       </c>
       <c r="AD4" t="n">
-        <v>336238.7000499499</v>
+        <v>435755.399511995</v>
       </c>
       <c r="AE4" t="n">
-        <v>460056.6232128713</v>
+        <v>596219.7617837649</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.499870337105695e-06</v>
+        <v>2.34351781623697e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.81510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>416149.4647869602</v>
+        <v>539317.384518813</v>
       </c>
     </row>
     <row r="5">
@@ -41606,28 +41606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>333.328981573824</v>
+        <v>425.3481026549208</v>
       </c>
       <c r="AB5" t="n">
-        <v>456.0754180261163</v>
+        <v>581.9800390863832</v>
       </c>
       <c r="AC5" t="n">
-        <v>412.5482202355725</v>
+        <v>526.4366809700929</v>
       </c>
       <c r="AD5" t="n">
-        <v>333328.981573824</v>
+        <v>425348.1026549208</v>
       </c>
       <c r="AE5" t="n">
-        <v>456075.4180261163</v>
+        <v>581980.0390863832</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.507906728166553e-06</v>
+        <v>2.356074518748809e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.68489583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>412548.2202355725</v>
+        <v>526436.6809700929</v>
       </c>
     </row>
   </sheetData>
@@ -41903,28 +41903,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.4227411046056</v>
+        <v>391.9596381185829</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.9469157446005</v>
+        <v>536.296468912669</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.1084732595184</v>
+        <v>485.1130866164646</v>
       </c>
       <c r="AD2" t="n">
-        <v>297422.7411046056</v>
+        <v>391959.6381185828</v>
       </c>
       <c r="AE2" t="n">
-        <v>406946.9157446005</v>
+        <v>536296.468912669</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.565660564374477e-06</v>
+        <v>2.551519654290112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>368108.4732595184</v>
+        <v>485113.0866164645</v>
       </c>
     </row>
     <row r="3">
@@ -42009,28 +42009,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>294.7001686799842</v>
+        <v>382.1159912439399</v>
       </c>
       <c r="AB3" t="n">
-        <v>403.221772041815</v>
+        <v>522.8279569877316</v>
       </c>
       <c r="AC3" t="n">
-        <v>364.7388520434548</v>
+        <v>472.9299905664681</v>
       </c>
       <c r="AD3" t="n">
-        <v>294700.1686799842</v>
+        <v>382115.9912439399</v>
       </c>
       <c r="AE3" t="n">
-        <v>403221.772041815</v>
+        <v>522827.9569877316</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582587738421471e-06</v>
+        <v>2.579105465835254e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.21875</v>
       </c>
       <c r="AH3" t="n">
-        <v>364738.8520434548</v>
+        <v>472929.9905664681</v>
       </c>
     </row>
   </sheetData>
@@ -42306,28 +42306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>687.6024383684879</v>
+        <v>828.5694233806765</v>
       </c>
       <c r="AB2" t="n">
-        <v>940.8079910544183</v>
+        <v>1133.685238972557</v>
       </c>
       <c r="AC2" t="n">
-        <v>851.0185968204926</v>
+        <v>1025.487910902242</v>
       </c>
       <c r="AD2" t="n">
-        <v>687602.4383684879</v>
+        <v>828569.4233806765</v>
       </c>
       <c r="AE2" t="n">
-        <v>940807.9910544183</v>
+        <v>1133685.238972557</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.750663551467675e-07</v>
+        <v>1.440544316469417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.87760416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>851018.5968204925</v>
+        <v>1025487.910902241</v>
       </c>
     </row>
     <row r="3">
@@ -42412,28 +42412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>543.0071592397325</v>
+        <v>658.997305988237</v>
       </c>
       <c r="AB3" t="n">
-        <v>742.9663510569542</v>
+        <v>901.6691869623838</v>
       </c>
       <c r="AC3" t="n">
-        <v>672.0586852719006</v>
+        <v>815.6151452593451</v>
       </c>
       <c r="AD3" t="n">
-        <v>543007.1592397324</v>
+        <v>658997.305988237</v>
       </c>
       <c r="AE3" t="n">
-        <v>742966.3510569541</v>
+        <v>901669.1869623838</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.165864826398281e-06</v>
+        <v>1.722426315475577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>672058.6852719006</v>
+        <v>815615.1452593452</v>
       </c>
     </row>
     <row r="4">
@@ -42518,28 +42518,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>497.7789207014328</v>
+        <v>613.7689779413862</v>
       </c>
       <c r="AB4" t="n">
-        <v>681.0830797597913</v>
+        <v>839.7857931956728</v>
       </c>
       <c r="AC4" t="n">
-        <v>616.0814665336222</v>
+        <v>759.6378157398403</v>
       </c>
       <c r="AD4" t="n">
-        <v>497778.9207014327</v>
+        <v>613768.9779413862</v>
       </c>
       <c r="AE4" t="n">
-        <v>681083.0797597913</v>
+        <v>839785.7931956728</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.233936797109305e-06</v>
+        <v>1.822994538346807e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.9765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>616081.4665336222</v>
+        <v>759637.8157398404</v>
       </c>
     </row>
     <row r="5">
@@ -42624,28 +42624,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>483.4714416293526</v>
+        <v>591.164392738636</v>
       </c>
       <c r="AB5" t="n">
-        <v>661.5069556919426</v>
+        <v>808.8572024773526</v>
       </c>
       <c r="AC5" t="n">
-        <v>598.3736602715463</v>
+        <v>731.661006311127</v>
       </c>
       <c r="AD5" t="n">
-        <v>483471.4416293526</v>
+        <v>591164.392738636</v>
       </c>
       <c r="AE5" t="n">
-        <v>661506.9556919426</v>
+        <v>808857.2024773527</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.269191430765069e-06</v>
+        <v>1.875079057388977e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.26041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>598373.6602715463</v>
+        <v>731661.006311127</v>
       </c>
     </row>
     <row r="6">
@@ -42730,28 +42730,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>463.6949571976446</v>
+        <v>571.4731596529485</v>
       </c>
       <c r="AB6" t="n">
-        <v>634.4478972155629</v>
+        <v>781.9147886536224</v>
       </c>
       <c r="AC6" t="n">
-        <v>573.8970803585252</v>
+        <v>707.2899386488181</v>
       </c>
       <c r="AD6" t="n">
-        <v>463694.9571976446</v>
+        <v>571473.1596529485</v>
       </c>
       <c r="AE6" t="n">
-        <v>634447.8972155629</v>
+        <v>781914.7886536224</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.293810588345909e-06</v>
+        <v>1.911450928228482e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.77864583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>573897.0803585252</v>
+        <v>707289.9386488181</v>
       </c>
     </row>
     <row r="7">
@@ -42836,28 +42836,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>456.6642836330251</v>
+        <v>564.442486088329</v>
       </c>
       <c r="AB7" t="n">
-        <v>624.8282194730236</v>
+        <v>772.295110911083</v>
       </c>
       <c r="AC7" t="n">
-        <v>565.1954911584314</v>
+        <v>698.5883494487244</v>
       </c>
       <c r="AD7" t="n">
-        <v>456664.2836330251</v>
+        <v>564442.486088329</v>
       </c>
       <c r="AE7" t="n">
-        <v>624828.2194730237</v>
+        <v>772295.1109110831</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.307277267542629e-06</v>
+        <v>1.93134634157769e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.51822916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>565195.4911584314</v>
+        <v>698588.3494487244</v>
       </c>
     </row>
     <row r="8">
@@ -42942,28 +42942,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>450.8086955848592</v>
+        <v>550.289791909493</v>
       </c>
       <c r="AB8" t="n">
-        <v>616.8163455752104</v>
+        <v>752.9307703627984</v>
       </c>
       <c r="AC8" t="n">
-        <v>557.9482592606897</v>
+        <v>681.0721143843452</v>
       </c>
       <c r="AD8" t="n">
-        <v>450808.6955848592</v>
+        <v>550289.791909493</v>
       </c>
       <c r="AE8" t="n">
-        <v>616816.3455752104</v>
+        <v>752930.7703627984</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.315844734380761e-06</v>
+        <v>1.944003752629838e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.36197916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>557948.2592606897</v>
+        <v>681072.1143843452</v>
       </c>
     </row>
     <row r="9">
@@ -43048,28 +43048,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>443.7739819027721</v>
+        <v>543.2550782274059</v>
       </c>
       <c r="AB9" t="n">
-        <v>607.1911399657147</v>
+        <v>743.3055647533026</v>
       </c>
       <c r="AC9" t="n">
-        <v>549.2416697655033</v>
+        <v>672.365524889159</v>
       </c>
       <c r="AD9" t="n">
-        <v>443773.9819027721</v>
+        <v>543255.0782274059</v>
       </c>
       <c r="AE9" t="n">
-        <v>607191.1399657147</v>
+        <v>743305.5647533026</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.327637310861984e-06</v>
+        <v>1.961425878761961e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.140625</v>
       </c>
       <c r="AH9" t="n">
-        <v>549241.6697655033</v>
+        <v>672365.524889159</v>
       </c>
     </row>
     <row r="10">
@@ -43154,28 +43154,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>437.0803434176383</v>
+        <v>536.561439742272</v>
       </c>
       <c r="AB10" t="n">
-        <v>598.0326084878659</v>
+        <v>734.1470332754539</v>
       </c>
       <c r="AC10" t="n">
-        <v>540.9572156778208</v>
+        <v>664.0810708014765</v>
       </c>
       <c r="AD10" t="n">
-        <v>437080.3434176383</v>
+        <v>536561.439742272</v>
       </c>
       <c r="AE10" t="n">
-        <v>598032.6084878659</v>
+        <v>734147.0332754538</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.335195392239302e-06</v>
+        <v>1.972592043109689e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.01041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>540957.2156778208</v>
+        <v>664081.0708014765</v>
       </c>
     </row>
     <row r="11">
@@ -43260,28 +43260,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>424.3930403563463</v>
+        <v>532.0859019570786</v>
       </c>
       <c r="AB11" t="n">
-        <v>580.6732807150985</v>
+        <v>728.0234050309602</v>
       </c>
       <c r="AC11" t="n">
-        <v>525.2546377837168</v>
+        <v>658.541873042071</v>
       </c>
       <c r="AD11" t="n">
-        <v>424393.0403563463</v>
+        <v>532085.9019570786</v>
       </c>
       <c r="AE11" t="n">
-        <v>580673.2807150985</v>
+        <v>728023.4050309602</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.338715931773362e-06</v>
+        <v>1.977793220639738e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.9453125</v>
       </c>
       <c r="AH11" t="n">
-        <v>525254.6377837168</v>
+        <v>658541.873042071</v>
       </c>
     </row>
     <row r="12">
@@ -43366,28 +43366,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>419.9712091100457</v>
+        <v>527.664070710778</v>
       </c>
       <c r="AB12" t="n">
-        <v>574.6231361264834</v>
+        <v>721.9732604423449</v>
       </c>
       <c r="AC12" t="n">
-        <v>519.7819105032078</v>
+        <v>653.069145761562</v>
       </c>
       <c r="AD12" t="n">
-        <v>419971.2091100457</v>
+        <v>527664.070710778</v>
       </c>
       <c r="AE12" t="n">
-        <v>574623.1361264833</v>
+        <v>721973.2604423449</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.341571754052739e-06</v>
+        <v>1.982012357657121e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.89322916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>519781.9105032078</v>
+        <v>653069.145761562</v>
       </c>
     </row>
     <row r="13">
@@ -43472,28 +43472,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>416.083353054576</v>
+        <v>523.7762146553083</v>
       </c>
       <c r="AB13" t="n">
-        <v>569.3035999512857</v>
+        <v>716.6537242671475</v>
       </c>
       <c r="AC13" t="n">
-        <v>514.9700633945552</v>
+        <v>648.2572986529093</v>
       </c>
       <c r="AD13" t="n">
-        <v>416083.353054576</v>
+        <v>523776.2146553083</v>
       </c>
       <c r="AE13" t="n">
-        <v>569303.5999512858</v>
+        <v>716653.7242671475</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.346987968720525e-06</v>
+        <v>1.990014169241811e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.80208333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>514970.0633945551</v>
+        <v>648257.2986529093</v>
       </c>
     </row>
     <row r="14">
@@ -43578,28 +43578,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>417.1449298454938</v>
+        <v>524.8377914462261</v>
       </c>
       <c r="AB14" t="n">
-        <v>570.756096150082</v>
+        <v>718.1062204659438</v>
       </c>
       <c r="AC14" t="n">
-        <v>516.2839353947296</v>
+        <v>649.5711706530839</v>
       </c>
       <c r="AD14" t="n">
-        <v>417144.9298454938</v>
+        <v>524837.7914462261</v>
       </c>
       <c r="AE14" t="n">
-        <v>570756.0961500821</v>
+        <v>718106.2204659438</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.346692538829554e-06</v>
+        <v>1.989577706791738e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.80208333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>516283.9353947297</v>
+        <v>649571.1706530838</v>
       </c>
     </row>
   </sheetData>
@@ -43875,28 +43875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>859.35641567811</v>
+        <v>1021.321748796965</v>
       </c>
       <c r="AB2" t="n">
-        <v>1175.809360060146</v>
+        <v>1397.417474239563</v>
       </c>
       <c r="AC2" t="n">
-        <v>1063.591764994807</v>
+        <v>1264.049911785881</v>
       </c>
       <c r="AD2" t="n">
-        <v>859356.41567811</v>
+        <v>1021321.748796965</v>
       </c>
       <c r="AE2" t="n">
-        <v>1175809.360060147</v>
+        <v>1397417.474239563</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.43025363337668e-07</v>
+        <v>1.224215312028185e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1063591.764994807</v>
+        <v>1264049.911785882</v>
       </c>
     </row>
     <row r="3">
@@ -43981,28 +43981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>639.9291687722646</v>
+        <v>767.693319182272</v>
       </c>
       <c r="AB3" t="n">
-        <v>875.5793203966473</v>
+        <v>1050.391867544127</v>
       </c>
       <c r="AC3" t="n">
-        <v>792.0152589412849</v>
+        <v>950.1439419399602</v>
       </c>
       <c r="AD3" t="n">
-        <v>639929.1687722646</v>
+        <v>767693.3191822721</v>
       </c>
       <c r="AE3" t="n">
-        <v>875579.3203966473</v>
+        <v>1050391.867544127</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.05658704395581e-06</v>
+        <v>1.534342967547468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.23177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>792015.2589412848</v>
+        <v>950143.9419399602</v>
       </c>
     </row>
     <row r="4">
@@ -44087,28 +44087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>582.3681143652461</v>
+        <v>701.6032819345468</v>
       </c>
       <c r="AB4" t="n">
-        <v>796.8217463424669</v>
+        <v>959.9645628951253</v>
       </c>
       <c r="AC4" t="n">
-        <v>720.7741972178861</v>
+        <v>868.3468923311397</v>
       </c>
       <c r="AD4" t="n">
-        <v>582368.1143652461</v>
+        <v>701603.2819345468</v>
       </c>
       <c r="AE4" t="n">
-        <v>796821.7463424669</v>
+        <v>959964.5628951252</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.134994215078112e-06</v>
+        <v>1.648203432054381e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.21354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>720774.1972178861</v>
+        <v>868346.8923311397</v>
       </c>
     </row>
     <row r="5">
@@ -44193,28 +44193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>551.7814168560758</v>
+        <v>662.5729424392416</v>
       </c>
       <c r="AB5" t="n">
-        <v>754.9716774205612</v>
+        <v>906.5615305005953</v>
       </c>
       <c r="AC5" t="n">
-        <v>682.9182401369463</v>
+        <v>820.0405703967172</v>
       </c>
       <c r="AD5" t="n">
-        <v>551781.4168560758</v>
+        <v>662572.9424392416</v>
       </c>
       <c r="AE5" t="n">
-        <v>754971.6774205612</v>
+        <v>906561.5305005952</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.180970946586439e-06</v>
+        <v>1.714969416990658e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.15885416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>682918.2401369463</v>
+        <v>820040.5703967172</v>
       </c>
     </row>
     <row r="6">
@@ -44299,28 +44299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>531.8400137381059</v>
+        <v>642.7167906672922</v>
       </c>
       <c r="AB6" t="n">
-        <v>727.6869699219392</v>
+        <v>879.3934676546227</v>
       </c>
       <c r="AC6" t="n">
-        <v>658.2375468276653</v>
+        <v>795.4653893381483</v>
       </c>
       <c r="AD6" t="n">
-        <v>531840.0137381059</v>
+        <v>642716.7906672922</v>
       </c>
       <c r="AE6" t="n">
-        <v>727686.9699219392</v>
+        <v>879393.4676546226</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.205240397738667e-06</v>
+        <v>1.750212761980241e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH6" t="n">
-        <v>658237.5468276653</v>
+        <v>795465.3893381483</v>
       </c>
     </row>
     <row r="7">
@@ -44405,28 +44405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>522.7176677849441</v>
+        <v>633.4238525135382</v>
       </c>
       <c r="AB7" t="n">
-        <v>715.2053737393231</v>
+        <v>866.6784596971595</v>
       </c>
       <c r="AC7" t="n">
-        <v>646.9471766666878</v>
+        <v>783.9638838945197</v>
       </c>
       <c r="AD7" t="n">
-        <v>522717.6677849441</v>
+        <v>633423.8525135382</v>
       </c>
       <c r="AE7" t="n">
-        <v>715205.3737393231</v>
+        <v>866678.4596971595</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.223412831348254e-06</v>
+        <v>1.776602207006655e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.24739583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>646947.1766666878</v>
+        <v>783963.8838945196</v>
       </c>
     </row>
     <row r="8">
@@ -44511,28 +44511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>506.8195895967007</v>
+        <v>617.6110256713155</v>
       </c>
       <c r="AB8" t="n">
-        <v>693.4529217884595</v>
+        <v>845.0426523989453</v>
       </c>
       <c r="AC8" t="n">
-        <v>627.2707482002567</v>
+        <v>764.3929676788008</v>
       </c>
       <c r="AD8" t="n">
-        <v>506819.5895967007</v>
+        <v>617611.0256713155</v>
       </c>
       <c r="AE8" t="n">
-        <v>693452.9217884595</v>
+        <v>845042.6523989453</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.237931799192988e-06</v>
+        <v>1.79768620224969e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.94791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>627270.7482002566</v>
+        <v>764392.9676788008</v>
       </c>
     </row>
     <row r="9">
@@ -44617,28 +44617,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>496.4387523908239</v>
+        <v>607.2301884654386</v>
       </c>
       <c r="AB9" t="n">
-        <v>679.2494023531631</v>
+        <v>830.839132963649</v>
       </c>
       <c r="AC9" t="n">
-        <v>614.4227927251002</v>
+        <v>751.5450122036445</v>
       </c>
       <c r="AD9" t="n">
-        <v>496438.7523908239</v>
+        <v>607230.1884654386</v>
       </c>
       <c r="AE9" t="n">
-        <v>679249.4023531631</v>
+        <v>830839.132963649</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.255392518692539e-06</v>
+        <v>1.823042118097522e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.609375</v>
       </c>
       <c r="AH9" t="n">
-        <v>614422.7927251002</v>
+        <v>751545.0122036445</v>
       </c>
     </row>
     <row r="10">
@@ -44723,28 +44723,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>495.3423555301271</v>
+        <v>606.1337916047419</v>
       </c>
       <c r="AB10" t="n">
-        <v>677.749263798742</v>
+        <v>829.3389944092278</v>
       </c>
       <c r="AC10" t="n">
-        <v>613.0658252888553</v>
+        <v>750.1880447673996</v>
       </c>
       <c r="AD10" t="n">
-        <v>495342.3555301271</v>
+        <v>606133.7916047418</v>
       </c>
       <c r="AE10" t="n">
-        <v>677749.2637987421</v>
+        <v>829338.9944092277</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.255772099551225e-06</v>
+        <v>1.823593333659432e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.59635416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>613065.8252888554</v>
+        <v>750188.0447673996</v>
       </c>
     </row>
     <row r="11">
@@ -44829,28 +44829,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>491.9555269166361</v>
+        <v>602.7469629912509</v>
       </c>
       <c r="AB11" t="n">
-        <v>673.1152554734305</v>
+        <v>824.7049860839164</v>
       </c>
       <c r="AC11" t="n">
-        <v>608.8740802142402</v>
+        <v>745.9962996927844</v>
       </c>
       <c r="AD11" t="n">
-        <v>491955.5269166362</v>
+        <v>602746.9629912509</v>
       </c>
       <c r="AE11" t="n">
-        <v>673115.2554734305</v>
+        <v>824704.9860839164</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.259615355745419e-06</v>
+        <v>1.829174391223765e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.51822916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>608874.0802142401</v>
+        <v>745996.2996927844</v>
       </c>
     </row>
     <row r="12">
@@ -44935,28 +44935,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>486.0211767413152</v>
+        <v>588.2837194837743</v>
       </c>
       <c r="AB12" t="n">
-        <v>664.9956157585041</v>
+        <v>804.9157382437163</v>
       </c>
       <c r="AC12" t="n">
-        <v>601.5293675177202</v>
+        <v>728.0957098920691</v>
       </c>
       <c r="AD12" t="n">
-        <v>486021.1767413152</v>
+        <v>588283.7194837744</v>
       </c>
       <c r="AE12" t="n">
-        <v>664995.615758504</v>
+        <v>804915.7382437163</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.267752620403498e-06</v>
+        <v>1.840991074832198e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.36197916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>601529.3675177202</v>
+        <v>728095.7098920691</v>
       </c>
     </row>
     <row r="13">
@@ -45041,28 +45041,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>483.1047808142917</v>
+        <v>585.3673235567508</v>
       </c>
       <c r="AB13" t="n">
-        <v>661.0052741888426</v>
+        <v>800.9253966740549</v>
       </c>
       <c r="AC13" t="n">
-        <v>597.9198585469877</v>
+        <v>724.4862009213366</v>
       </c>
       <c r="AD13" t="n">
-        <v>483104.7808142917</v>
+        <v>585367.3235567508</v>
       </c>
       <c r="AE13" t="n">
-        <v>661005.2741888426</v>
+        <v>800925.3966740549</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.270243619788624e-06</v>
+        <v>1.844608426957228e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.32291666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>597919.8585469878</v>
+        <v>724486.2009213367</v>
       </c>
     </row>
     <row r="14">
@@ -45147,28 +45147,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>478.9166397313766</v>
+        <v>581.1791824738358</v>
       </c>
       <c r="AB14" t="n">
-        <v>655.2748747914538</v>
+        <v>795.1949972766661</v>
       </c>
       <c r="AC14" t="n">
-        <v>592.7363604254197</v>
+        <v>719.3027027997686</v>
       </c>
       <c r="AD14" t="n">
-        <v>478916.6397313765</v>
+        <v>581179.1824738358</v>
       </c>
       <c r="AE14" t="n">
-        <v>655274.8747914538</v>
+        <v>795194.9972766661</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.274063152179151e-06</v>
+        <v>1.850155033548942e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.24479166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>592736.3604254196</v>
+        <v>719302.7027997685</v>
       </c>
     </row>
     <row r="15">
@@ -45253,28 +45253,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>473.5613536220755</v>
+        <v>575.8238963645348</v>
       </c>
       <c r="AB15" t="n">
-        <v>647.9475360781593</v>
+        <v>787.8676585633717</v>
       </c>
       <c r="AC15" t="n">
-        <v>586.1083326349375</v>
+        <v>712.6746750092865</v>
       </c>
       <c r="AD15" t="n">
-        <v>473561.3536220755</v>
+        <v>575823.8963645347</v>
       </c>
       <c r="AE15" t="n">
-        <v>647947.5360781592</v>
+        <v>787867.6585633717</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.279804312666774e-06</v>
+        <v>1.858492168922821e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.140625</v>
       </c>
       <c r="AH15" t="n">
-        <v>586108.3326349375</v>
+        <v>712674.6750092865</v>
       </c>
     </row>
     <row r="16">
@@ -45359,28 +45359,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>470.8868106798015</v>
+        <v>573.1493534222607</v>
       </c>
       <c r="AB16" t="n">
-        <v>644.288108432033</v>
+        <v>784.2082309172453</v>
       </c>
       <c r="AC16" t="n">
-        <v>582.7981556273185</v>
+        <v>709.3644980016675</v>
       </c>
       <c r="AD16" t="n">
-        <v>470886.8106798015</v>
+        <v>573149.3534222607</v>
       </c>
       <c r="AE16" t="n">
-        <v>644288.108432033</v>
+        <v>784208.2309172453</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.277716617944002e-06</v>
+        <v>1.85546048333232e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>24.1796875</v>
       </c>
       <c r="AH16" t="n">
-        <v>582798.1556273184</v>
+        <v>709364.4980016674</v>
       </c>
     </row>
     <row r="17">
@@ -45465,28 +45465,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>467.816328611523</v>
+        <v>570.0788713539821</v>
       </c>
       <c r="AB17" t="n">
-        <v>640.0869394061057</v>
+        <v>780.0070618913179</v>
       </c>
       <c r="AC17" t="n">
-        <v>578.9979402768479</v>
+        <v>705.5642826511969</v>
       </c>
       <c r="AD17" t="n">
-        <v>467816.328611523</v>
+        <v>570078.8713539821</v>
       </c>
       <c r="AE17" t="n">
-        <v>640086.9394061057</v>
+        <v>780007.0618913179</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.282556273892247e-06</v>
+        <v>1.862488481746665e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>24.08854166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>578997.9402768479</v>
+        <v>705564.2826511969</v>
       </c>
     </row>
     <row r="18">
@@ -45571,28 +45571,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>453.7602785820674</v>
+        <v>564.4663738021105</v>
       </c>
       <c r="AB18" t="n">
-        <v>620.8548316466424</v>
+        <v>772.3277951349304</v>
       </c>
       <c r="AC18" t="n">
-        <v>561.601317889515</v>
+        <v>698.6179143361203</v>
       </c>
       <c r="AD18" t="n">
-        <v>453760.2785820673</v>
+        <v>564466.3738021106</v>
       </c>
       <c r="AE18" t="n">
-        <v>620854.8316466424</v>
+        <v>772327.7951349304</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.287633167877171e-06</v>
+        <v>1.869860989887203e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>24</v>
+        <v>23.984375</v>
       </c>
       <c r="AH18" t="n">
-        <v>561601.3178895151</v>
+        <v>698617.9143361202</v>
       </c>
     </row>
     <row r="19">
@@ -45677,28 +45677,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>454.7402124950823</v>
+        <v>565.4463077151255</v>
       </c>
       <c r="AB19" t="n">
-        <v>622.1956204580625</v>
+        <v>773.6685839463506</v>
       </c>
       <c r="AC19" t="n">
-        <v>562.8141436985821</v>
+        <v>699.8307401451876</v>
       </c>
       <c r="AD19" t="n">
-        <v>454740.2124950823</v>
+        <v>565446.3077151255</v>
       </c>
       <c r="AE19" t="n">
-        <v>622195.6204580625</v>
+        <v>773668.5839463506</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.28775178689551e-06</v>
+        <v>1.8700332447503e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>23.984375</v>
       </c>
       <c r="AH19" t="n">
-        <v>562814.1436985822</v>
+        <v>699830.7401451876</v>
       </c>
     </row>
     <row r="20">
@@ -45783,28 +45783,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>455.9250946332981</v>
+        <v>566.6311898533413</v>
       </c>
       <c r="AB20" t="n">
-        <v>623.8168284728799</v>
+        <v>775.289791961168</v>
       </c>
       <c r="AC20" t="n">
-        <v>564.2806258958452</v>
+        <v>701.2972223424504</v>
       </c>
       <c r="AD20" t="n">
-        <v>455925.0946332981</v>
+        <v>566631.1898533413</v>
       </c>
       <c r="AE20" t="n">
-        <v>623816.8284728799</v>
+        <v>775289.7919611681</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.287585720269835e-06</v>
+        <v>1.869792087941964e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>24</v>
+        <v>23.984375</v>
       </c>
       <c r="AH20" t="n">
-        <v>564280.6258958452</v>
+        <v>701297.2223424504</v>
       </c>
     </row>
   </sheetData>
@@ -46080,28 +46080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.8755373063607</v>
+        <v>363.2938280651834</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.6238603278679</v>
+        <v>497.0746429513225</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.2520392720303</v>
+        <v>449.6345366766906</v>
       </c>
       <c r="AD2" t="n">
-        <v>270875.5373063607</v>
+        <v>363293.8280651834</v>
       </c>
       <c r="AE2" t="n">
-        <v>370623.8603278679</v>
+        <v>497074.6429513225</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.587347118726077e-06</v>
+        <v>2.646013074296035e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>25</v>
       </c>
       <c r="AH2" t="n">
-        <v>335252.0392720303</v>
+        <v>449634.5366766906</v>
       </c>
     </row>
   </sheetData>
@@ -46377,28 +46377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>508.4425055254351</v>
+        <v>627.4952793081017</v>
       </c>
       <c r="AB2" t="n">
-        <v>695.6734669601515</v>
+        <v>858.5667242872906</v>
       </c>
       <c r="AC2" t="n">
-        <v>629.2793676573169</v>
+        <v>776.6263211272766</v>
       </c>
       <c r="AD2" t="n">
-        <v>508442.5055254351</v>
+        <v>627495.2793081016</v>
       </c>
       <c r="AE2" t="n">
-        <v>695673.4669601514</v>
+        <v>858566.7242872906</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.177770014411646e-06</v>
+        <v>1.792455983798514e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.88020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>629279.367657317</v>
+        <v>776626.3211272766</v>
       </c>
     </row>
     <row r="3">
@@ -46483,28 +46483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>431.1845398988862</v>
+        <v>534.4375725844926</v>
       </c>
       <c r="AB3" t="n">
-        <v>589.9657100090154</v>
+        <v>731.241064531774</v>
       </c>
       <c r="AC3" t="n">
-        <v>533.6602106678288</v>
+        <v>661.4524436361405</v>
       </c>
       <c r="AD3" t="n">
-        <v>431184.5398988862</v>
+        <v>534437.5725844926</v>
       </c>
       <c r="AE3" t="n">
-        <v>589965.7100090154</v>
+        <v>731241.064531774</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.327430964398333e-06</v>
+        <v>2.020225974596435e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>533660.2106678288</v>
+        <v>661452.4436361406</v>
       </c>
     </row>
     <row r="4">
@@ -46589,28 +46589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>404.4597073507844</v>
+        <v>507.627399181819</v>
       </c>
       <c r="AB4" t="n">
-        <v>553.399615100301</v>
+        <v>694.558202500862</v>
       </c>
       <c r="AC4" t="n">
-        <v>500.5839325363656</v>
+        <v>628.2705424727386</v>
       </c>
       <c r="AD4" t="n">
-        <v>404459.7073507843</v>
+        <v>507627.3991818191</v>
       </c>
       <c r="AE4" t="n">
-        <v>553399.6151003011</v>
+        <v>694558.202500862</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.381150048401935e-06</v>
+        <v>2.101981404254348e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.63541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>500583.9325363656</v>
+        <v>628270.5424727387</v>
       </c>
     </row>
     <row r="5">
@@ -46695,28 +46695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>392.6186353296281</v>
+        <v>487.8438756933979</v>
       </c>
       <c r="AB5" t="n">
-        <v>537.198137969726</v>
+        <v>667.4895128765462</v>
       </c>
       <c r="AC5" t="n">
-        <v>485.9287016442167</v>
+        <v>603.7852505950232</v>
       </c>
       <c r="AD5" t="n">
-        <v>392618.6353296281</v>
+        <v>487843.8756933979</v>
       </c>
       <c r="AE5" t="n">
-        <v>537198.137969726</v>
+        <v>667489.5128765462</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.40926373244273e-06</v>
+        <v>2.14476780615703e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>485928.7016442167</v>
+        <v>603785.2505950232</v>
       </c>
     </row>
     <row r="6">
@@ -46801,28 +46801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>373.1732207719958</v>
+        <v>476.255571748459</v>
       </c>
       <c r="AB6" t="n">
-        <v>510.5920639008289</v>
+        <v>651.6338841791921</v>
       </c>
       <c r="AC6" t="n">
-        <v>461.8618739425955</v>
+        <v>589.4428608470298</v>
       </c>
       <c r="AD6" t="n">
-        <v>373173.2207719958</v>
+        <v>476255.571748459</v>
       </c>
       <c r="AE6" t="n">
-        <v>510592.0639008289</v>
+        <v>651633.8841791921</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.431420241798301e-06</v>
+        <v>2.178487944459516e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.76302083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>461861.8739425956</v>
+        <v>589442.8608470298</v>
       </c>
     </row>
     <row r="7">
@@ -46907,28 +46907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>368.2416456628942</v>
+        <v>463.5521373726847</v>
       </c>
       <c r="AB7" t="n">
-        <v>503.8444652708172</v>
+        <v>634.2524848302867</v>
       </c>
       <c r="AC7" t="n">
-        <v>455.758256655518</v>
+        <v>573.7203178570365</v>
       </c>
       <c r="AD7" t="n">
-        <v>368241.6456628942</v>
+        <v>463552.1373726847</v>
       </c>
       <c r="AE7" t="n">
-        <v>503844.4652708172</v>
+        <v>634252.4848302867</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.437011625055486e-06</v>
+        <v>2.186997507663209e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.671875</v>
       </c>
       <c r="AH7" t="n">
-        <v>455758.256655518</v>
+        <v>573720.3178570366</v>
       </c>
     </row>
     <row r="8">
@@ -47013,28 +47013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>368.7535951361337</v>
+        <v>464.0640868459242</v>
       </c>
       <c r="AB8" t="n">
-        <v>504.5449371257203</v>
+        <v>634.9529566851899</v>
       </c>
       <c r="AC8" t="n">
-        <v>456.3918764597076</v>
+        <v>574.3539376612262</v>
       </c>
       <c r="AD8" t="n">
-        <v>368753.5951361337</v>
+        <v>464064.0868459243</v>
       </c>
       <c r="AE8" t="n">
-        <v>504544.9371257203</v>
+        <v>634952.9566851899</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.435809738934782e-06</v>
+        <v>2.185168349217555e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.69791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>456391.8764597076</v>
+        <v>574353.9376612261</v>
       </c>
     </row>
   </sheetData>
@@ -47310,28 +47310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>619.7419305923017</v>
+        <v>750.2308768402086</v>
       </c>
       <c r="AB2" t="n">
-        <v>847.9582505207287</v>
+        <v>1026.498983543131</v>
       </c>
       <c r="AC2" t="n">
-        <v>767.0303052079091</v>
+        <v>928.5313612541458</v>
       </c>
       <c r="AD2" t="n">
-        <v>619741.9305923018</v>
+        <v>750230.8768402085</v>
       </c>
       <c r="AE2" t="n">
-        <v>847958.2505207288</v>
+        <v>1026498.983543131</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.047505350489228e-06</v>
+        <v>1.563831939789953e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.26302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>767030.3052079091</v>
+        <v>928531.3612541459</v>
       </c>
     </row>
     <row r="3">
@@ -47416,28 +47416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>497.279681462642</v>
+        <v>611.521436750507</v>
       </c>
       <c r="AB3" t="n">
-        <v>680.3999986083971</v>
+        <v>836.7106081837924</v>
       </c>
       <c r="AC3" t="n">
-        <v>615.4635776886066</v>
+        <v>756.8561220694446</v>
       </c>
       <c r="AD3" t="n">
-        <v>497279.681462642</v>
+        <v>611521.436750507</v>
       </c>
       <c r="AE3" t="n">
-        <v>680399.9986083971</v>
+        <v>836710.6081837923</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.224450011648691e-06</v>
+        <v>1.827994516684901e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.74479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>615463.5776886066</v>
+        <v>756856.1220694446</v>
       </c>
     </row>
     <row r="4">
@@ -47522,28 +47522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>464.5706736001891</v>
+        <v>570.5609563890025</v>
       </c>
       <c r="AB4" t="n">
-        <v>635.6460910314055</v>
+        <v>780.6666719043236</v>
       </c>
       <c r="AC4" t="n">
-        <v>574.9809202382593</v>
+        <v>706.1609404103298</v>
       </c>
       <c r="AD4" t="n">
-        <v>464570.6736001892</v>
+        <v>570560.9563890025</v>
       </c>
       <c r="AE4" t="n">
-        <v>635646.0910314055</v>
+        <v>780666.6719043236</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.288445919807588e-06</v>
+        <v>1.923534692348925e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.41666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>574980.9202382592</v>
+        <v>706160.9404103297</v>
       </c>
     </row>
     <row r="5">
@@ -47628,28 +47628,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>443.5077463637044</v>
+        <v>549.5832804985382</v>
       </c>
       <c r="AB5" t="n">
-        <v>606.8268647556791</v>
+        <v>751.9640902812465</v>
       </c>
       <c r="AC5" t="n">
-        <v>548.9121604702502</v>
+        <v>680.1976928930327</v>
       </c>
       <c r="AD5" t="n">
-        <v>443507.7463637044</v>
+        <v>549583.2804985382</v>
       </c>
       <c r="AE5" t="n">
-        <v>606826.8647556792</v>
+        <v>751964.0902812465</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.320871519499733e-06</v>
+        <v>1.971943216889384e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.79166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>548912.1604702502</v>
+        <v>680197.6928930327</v>
       </c>
     </row>
     <row r="6">
@@ -47734,28 +47734,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>433.9015211211162</v>
+        <v>539.8064630553578</v>
       </c>
       <c r="AB6" t="n">
-        <v>593.6832035820223</v>
+        <v>738.5870173327427</v>
       </c>
       <c r="AC6" t="n">
-        <v>537.0229118717629</v>
+        <v>668.0973090118945</v>
       </c>
       <c r="AD6" t="n">
-        <v>433901.5211211162</v>
+        <v>539806.4630553578</v>
       </c>
       <c r="AE6" t="n">
-        <v>593683.2035820223</v>
+        <v>738587.0173327427</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.34119726391498e-06</v>
+        <v>2.002287738090851e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.42708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>537022.9118717628</v>
+        <v>668097.3090118945</v>
       </c>
     </row>
     <row r="7">
@@ -47840,28 +47840,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>425.1858961884456</v>
+        <v>523.0952986787993</v>
       </c>
       <c r="AB7" t="n">
-        <v>581.7581010429075</v>
+        <v>715.722064988195</v>
       </c>
       <c r="AC7" t="n">
-        <v>526.2359243819946</v>
+        <v>647.4145556279482</v>
       </c>
       <c r="AD7" t="n">
-        <v>425185.8961884456</v>
+        <v>523095.2986787992</v>
       </c>
       <c r="AE7" t="n">
-        <v>581758.1010429075</v>
+        <v>715722.0649881951</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.35654219472352e-06</v>
+        <v>2.025196349393939e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>526235.9243819945</v>
+        <v>647414.5556279481</v>
       </c>
     </row>
     <row r="8">
@@ -47946,28 +47946,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>419.3033271542752</v>
+        <v>517.2127296446289</v>
       </c>
       <c r="AB8" t="n">
-        <v>573.709310569726</v>
+        <v>707.6732745150134</v>
       </c>
       <c r="AC8" t="n">
-        <v>518.9552991750248</v>
+        <v>640.1339304209787</v>
       </c>
       <c r="AD8" t="n">
-        <v>419303.3271542751</v>
+        <v>517212.7296446289</v>
       </c>
       <c r="AE8" t="n">
-        <v>573709.3105697259</v>
+        <v>707673.2745150134</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.363887637012198e-06</v>
+        <v>2.036162438739024e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.01041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>518955.2991750248</v>
+        <v>640133.9304209787</v>
       </c>
     </row>
     <row r="9">
@@ -48052,28 +48052,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>402.8780754043747</v>
+        <v>508.8682686846369</v>
       </c>
       <c r="AB9" t="n">
-        <v>551.2355564945467</v>
+        <v>696.2560148979162</v>
       </c>
       <c r="AC9" t="n">
-        <v>498.6264086466689</v>
+        <v>629.8063180375127</v>
       </c>
       <c r="AD9" t="n">
-        <v>402878.0754043747</v>
+        <v>508868.2686846369</v>
       </c>
       <c r="AE9" t="n">
-        <v>551235.5564945467</v>
+        <v>696256.0148979162</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.374729711075282e-06</v>
+        <v>2.052348687053172e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.828125</v>
       </c>
       <c r="AH9" t="n">
-        <v>498626.4086466689</v>
+        <v>629806.3180375127</v>
       </c>
     </row>
     <row r="10">
@@ -48158,28 +48158,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>399.0929313789392</v>
+        <v>505.0831246592015</v>
       </c>
       <c r="AB10" t="n">
-        <v>546.0565554501769</v>
+        <v>691.0770138535464</v>
       </c>
       <c r="AC10" t="n">
-        <v>493.9416841932003</v>
+        <v>625.121593584044</v>
       </c>
       <c r="AD10" t="n">
-        <v>399092.9313789392</v>
+        <v>505083.1246592015</v>
       </c>
       <c r="AE10" t="n">
-        <v>546056.5554501769</v>
+        <v>691077.0138535465</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.377069184132977e-06</v>
+        <v>2.055841311399381e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.7890625</v>
       </c>
       <c r="AH10" t="n">
-        <v>493941.6841932003</v>
+        <v>625121.593584044</v>
       </c>
     </row>
     <row r="11">
@@ -48264,28 +48264,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>397.1032978457631</v>
+        <v>495.0979516821372</v>
       </c>
       <c r="AB11" t="n">
-        <v>543.3342510736487</v>
+        <v>677.4148596715855</v>
       </c>
       <c r="AC11" t="n">
-        <v>491.4791927255897</v>
+        <v>612.7633362222556</v>
       </c>
       <c r="AD11" t="n">
-        <v>397103.297845763</v>
+        <v>495097.9516821372</v>
       </c>
       <c r="AE11" t="n">
-        <v>543334.2510736487</v>
+        <v>677414.8596715855</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.381068928392908e-06</v>
+        <v>2.061812572378382e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.7109375</v>
       </c>
       <c r="AH11" t="n">
-        <v>491479.1927255897</v>
+        <v>612763.3362222556</v>
       </c>
     </row>
   </sheetData>
